--- a/EA.xlsx
+++ b/EA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C87B5-EC19-4DAA-8549-A2E7D2C614CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A6FA0-0FA5-4DCA-9549-1D0ACAFED28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="2655" windowWidth="28455" windowHeight="16710" xr2:uid="{A1C1684E-FBEC-4D33-A009-053BECC740FF}"/>
+    <workbookView xWindow="-25230" yWindow="1215" windowWidth="25110" windowHeight="18855" xr2:uid="{A1C1684E-FBEC-4D33-A009-053BECC740FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={224997F1-8691-45DC-AC2C-D139424C2DD4}</author>
   </authors>
   <commentList>
-    <comment ref="W66" authorId="0" shapeId="0" xr:uid="{224997F1-8691-45DC-AC2C-D139424C2DD4}">
+    <comment ref="AF66" authorId="0" shapeId="0" xr:uid="{224997F1-8691-45DC-AC2C-D139424C2DD4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
   <si>
     <t>Price</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Interest</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Model NI</t>
   </si>
   <si>
@@ -435,12 +432,45 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Founded: 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Sports Yugio", Pay-to-Play</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -493,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -520,13 +550,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{AEC1A6AE-6A3B-4B6A-859D-868B648E919E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -542,16 +575,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>44116</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>44116</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -566,8 +599,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="66675"/>
-          <a:ext cx="0" cy="8020050"/>
+          <a:off x="11644563" y="0"/>
+          <a:ext cx="0" cy="13561093"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -592,14 +625,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22514</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22514</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -616,8 +649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13315950" y="0"/>
-          <a:ext cx="0" cy="8505825"/>
+          <a:off x="20146241" y="0"/>
+          <a:ext cx="0" cy="13541952"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -650,9 +683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -690,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -796,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -938,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,7 +979,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W66" dT="2022-08-26T15:11:05.61" personId="{6554114F-9955-4037-9A40-BBF4786DF90A}" id="{224997F1-8691-45DC-AC2C-D139424C2DD4}">
+  <threadedComment ref="AF66" dT="2022-08-26T15:11:05.61" personId="{6554114F-9955-4037-9A40-BBF4786DF90A}" id="{224997F1-8691-45DC-AC2C-D139424C2DD4}">
     <text>Q123 guidance: 1600-1650m</text>
   </threadedComment>
 </ThreadedComments>
@@ -954,190 +987,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661520D-D2E8-4875-AF37-2643C5BED407}">
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>133.69</v>
+        <v>142.77000000000001</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>281</v>
+      <c r="N3" s="4">
+        <v>264.19993099999999</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="4">
         <f>+N2*N3</f>
-        <v>37566.89</v>
+        <v>37719.82414887</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="4">
-        <f>2082+334</f>
-        <v>2416</v>
+        <f>2400+366</f>
+        <v>2766</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
       <c r="N6" s="4">
-        <v>1878</v>
+        <v>1882</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="4">
         <f>+N4-N5+N6</f>
-        <v>37028.89</v>
+        <v>36835.82414887</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>94</v>
+      <c r="C8" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="C9" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>47</v>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>102</v>
+      <c r="B21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>57</v>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>100</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>96</v>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1147,29 +1188,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52EA67E-6005-4915-82FF-FB0BB8A3D32C}">
-  <dimension ref="A1:FU82"/>
+  <dimension ref="A1:GD82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.140625" style="1"/>
+    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2">
         <v>44012</v>
       </c>
@@ -1197,35 +1238,96 @@
       <c r="K2" s="2">
         <v>44742</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="P2" s="11">
+      <c r="L2" s="2">
+        <f>+H2+365</f>
+        <v>44834</v>
+      </c>
+      <c r="M2" s="2">
+        <f>+I2+365</f>
+        <v>44926</v>
+      </c>
+      <c r="N2" s="2">
+        <f>+J2+365</f>
+        <v>45016</v>
+      </c>
+      <c r="O2" s="2">
+        <f>+K2+365</f>
+        <v>45107</v>
+      </c>
+      <c r="P2" s="2">
+        <f>+L2+365</f>
+        <v>45199</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>+M2+365</f>
+        <v>45291</v>
+      </c>
+      <c r="R2" s="2">
+        <f>+N2+366</f>
+        <v>45382</v>
+      </c>
+      <c r="S2" s="2">
+        <f>+O2+366</f>
+        <v>45473</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" ref="S2:V2" si="0">+P2+365</f>
+        <v>45564</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>45656</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>45747</v>
+      </c>
+      <c r="Y2" s="11">
         <v>42460</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Z2" s="11">
         <v>42825</v>
       </c>
-      <c r="R2" s="11">
+      <c r="AA2" s="11">
         <v>43190</v>
       </c>
-      <c r="S2" s="11">
+      <c r="AB2" s="11">
         <v>43555</v>
       </c>
-      <c r="T2" s="11">
+      <c r="AC2" s="11">
         <v>43921</v>
       </c>
-      <c r="U2" s="11">
+      <c r="AD2" s="11">
         <v>44286</v>
       </c>
-      <c r="V2" s="11">
+      <c r="AE2" s="11">
         <v>44651</v>
       </c>
-      <c r="W2" s="11">
+      <c r="AF2" s="11">
         <v>45016</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG2" s="11">
+        <f>+AF2+366</f>
+        <v>45382</v>
+      </c>
+      <c r="AH2" s="11">
+        <f>+AG2+365</f>
+        <v>45747</v>
+      </c>
+      <c r="AI2" s="11">
+        <f>+AH2+365</f>
+        <v>46112</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f>+AI2+365</f>
+        <v>46477</v>
+      </c>
+      <c r="AK2" s="11">
+        <f>+AJ2+365</f>
+        <v>46842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,64 +1364,88 @@
       <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="P3" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -1341,26 +1467,36 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5">
+        <v>1262</v>
+      </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -1382,23 +1518,31 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5">
         <v>3774</v>
       </c>
-      <c r="U6" s="5">
+      <c r="AD6" s="5">
         <v>3716</v>
       </c>
-      <c r="V6" s="5">
+      <c r="AE6" s="5">
         <v>4400</v>
       </c>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -1420,23 +1564,31 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="5">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5">
         <v>1036</v>
       </c>
-      <c r="U7" s="5">
+      <c r="AD7" s="5">
         <v>1195</v>
       </c>
-      <c r="V7" s="5">
+      <c r="AE7" s="5">
         <v>1532</v>
       </c>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -1458,21 +1610,29 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5">
         <v>727</v>
       </c>
-      <c r="U8" s="5">
+      <c r="AD8" s="5">
         <v>718</v>
       </c>
-      <c r="V8" s="5">
+      <c r="AE8" s="5">
         <v>1059</v>
       </c>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1485,17 +1645,25 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1509,23 +1677,31 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5">
         <v>2826</v>
       </c>
-      <c r="U10" s="5">
+      <c r="AD10" s="5">
         <v>3068</v>
       </c>
-      <c r="V10" s="5">
+      <c r="AE10" s="5">
         <v>3910</v>
       </c>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -1543,23 +1719,31 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5">
         <v>2270</v>
       </c>
-      <c r="U11" s="5">
+      <c r="AD11" s="5">
         <v>2474</v>
       </c>
-      <c r="V11" s="5">
+      <c r="AE11" s="5">
         <v>3039</v>
       </c>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -1577,32 +1761,40 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="5">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5">
         <v>3267</v>
       </c>
-      <c r="U12" s="5">
+      <c r="AD12" s="5">
         <v>3155</v>
       </c>
-      <c r="V12" s="5">
+      <c r="AE12" s="5">
         <v>3952</v>
       </c>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1">
         <v>163</v>
@@ -1616,23 +1808,28 @@
       <c r="K14" s="1">
         <v>237</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="4">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="4">
         <v>811</v>
       </c>
-      <c r="U14" s="4">
+      <c r="AD14" s="4">
         <v>918</v>
       </c>
-      <c r="V14" s="4">
+      <c r="AE14" s="4">
         <v>1282</v>
       </c>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="5">
+        <v>1262</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -1654,21 +1851,34 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5">
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5">
         <v>1076</v>
       </c>
-      <c r="U15" s="5">
+      <c r="AD15" s="5">
         <v>695</v>
       </c>
-      <c r="V15" s="5">
+      <c r="AE15" s="5">
         <v>711</v>
       </c>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="5">
+        <v>675</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1695,21 +1905,49 @@
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="T16" s="4">
-        <f>+T15+T14</f>
+      <c r="N16" s="5">
+        <v>372</v>
+      </c>
+      <c r="O16" s="5">
+        <v>443</v>
+      </c>
+      <c r="P16" s="5">
+        <v>621</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>618</v>
+      </c>
+      <c r="R16" s="5">
+        <v>333</v>
+      </c>
+      <c r="S16" s="5">
+        <v>250</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="AC16" s="4">
+        <f>+AC15+AC14</f>
         <v>1887</v>
       </c>
-      <c r="U16" s="4">
-        <f t="shared" ref="U16:V16" si="0">+U15+U14</f>
+      <c r="AD16" s="4">
+        <f t="shared" ref="AD16:AG16" si="1">+AD15+AD14</f>
         <v>1613</v>
       </c>
-      <c r="V16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="4">
+        <f t="shared" si="1"/>
         <v>1993</v>
       </c>
-    </row>
-    <row r="17" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="4">
+        <f t="shared" si="1"/>
+        <v>1937</v>
+      </c>
+      <c r="AG16" s="4">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1738,18 +1976,44 @@
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="T17" s="4">
+      <c r="N17" s="5">
+        <v>1502</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1481</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1293</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1327</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1446</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1410</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="AC17" s="4">
         <v>3650</v>
       </c>
-      <c r="U17" s="4">
+      <c r="AD17" s="4">
         <v>4016</v>
       </c>
-      <c r="V17" s="4">
+      <c r="AE17" s="4">
         <v>4998</v>
       </c>
-    </row>
-    <row r="18" spans="2:177" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF17" s="4">
+        <v>5489</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="18" spans="2:186" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1792,66 +2056,88 @@
         <v>1967.9</v>
       </c>
       <c r="N18" s="7">
-        <f>+J18*1.1</f>
-        <v>2007.5000000000002</v>
+        <v>1874</v>
+      </c>
+      <c r="O18" s="7">
+        <f>+O17+O16</f>
+        <v>1924</v>
       </c>
       <c r="P18" s="7">
+        <v>1914</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1945</v>
+      </c>
+      <c r="R18" s="7">
+        <f>+R16+R17</f>
+        <v>1779</v>
+      </c>
+      <c r="S18" s="7">
+        <f>+S17+S16</f>
+        <v>1660</v>
+      </c>
+      <c r="T18" s="7">
+        <f>+P18</f>
+        <v>1914</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="Y18" s="7">
         <v>4396</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Z18" s="7">
         <v>4845</v>
       </c>
-      <c r="R18" s="7">
+      <c r="AA18" s="7">
         <v>5150</v>
       </c>
-      <c r="S18" s="7">
+      <c r="AB18" s="7">
         <v>4950</v>
       </c>
-      <c r="T18" s="7">
-        <f>+T17+T16</f>
+      <c r="AC18" s="7">
+        <f>+AC17+AC16</f>
         <v>5537</v>
       </c>
-      <c r="U18" s="7">
-        <f>+U17+U16</f>
+      <c r="AD18" s="7">
+        <f>+AD17+AD16</f>
         <v>5629</v>
       </c>
-      <c r="V18" s="7">
-        <f>+V17+V16</f>
+      <c r="AE18" s="7">
+        <f>+AE17+AE16</f>
         <v>6991</v>
       </c>
-      <c r="W18" s="6">
-        <v>7800</v>
-      </c>
-      <c r="X18" s="6">
-        <f>+W18*1.03</f>
-        <v>8034</v>
-      </c>
-      <c r="Y18" s="6">
-        <f t="shared" ref="Y18:AD18" si="1">+X18*1.03</f>
-        <v>8275.02</v>
-      </c>
-      <c r="Z18" s="6">
-        <f t="shared" si="1"/>
-        <v>8523.2705999999998</v>
-      </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="1"/>
-        <v>8778.9687180000001</v>
-      </c>
-      <c r="AB18" s="6">
-        <f t="shared" si="1"/>
-        <v>9042.3377795400011</v>
-      </c>
-      <c r="AC18" s="6">
-        <f t="shared" si="1"/>
-        <v>9313.6079129262016</v>
-      </c>
-      <c r="AD18" s="6">
-        <f t="shared" si="1"/>
-        <v>9593.016150313988</v>
-      </c>
-    </row>
-    <row r="19" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="6">
+        <v>7426</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>7562</v>
+      </c>
+      <c r="AH18" s="6">
+        <f t="shared" ref="AH18:AM18" si="2">+AG18*1.03</f>
+        <v>7788.8600000000006</v>
+      </c>
+      <c r="AI18" s="6">
+        <f t="shared" si="2"/>
+        <v>8022.5258000000013</v>
+      </c>
+      <c r="AJ18" s="6">
+        <f t="shared" si="2"/>
+        <v>8263.2015740000006</v>
+      </c>
+      <c r="AK18" s="6">
+        <f t="shared" si="2"/>
+        <v>8511.0976212200003</v>
+      </c>
+      <c r="AL18" s="6">
+        <f t="shared" si="2"/>
+        <v>8766.4305498566009</v>
+      </c>
+      <c r="AM18" s="6">
+        <f t="shared" si="2"/>
+        <v>9029.4234663522984</v>
+      </c>
+    </row>
+    <row r="19" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1891,73 +2177,88 @@
         <v>531.33300000000008</v>
       </c>
       <c r="N19" s="5">
-        <f>+N18-N20</f>
-        <v>542.02500000000009</v>
-      </c>
-      <c r="P19" s="5">
+        <v>448</v>
+      </c>
+      <c r="O19" s="5">
+        <v>368</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5">
+        <v>357</v>
+      </c>
+      <c r="S19" s="5">
+        <v>263</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="Y19" s="5">
         <v>1354</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Z19" s="5">
         <v>1298</v>
       </c>
-      <c r="R19" s="5">
+      <c r="AA19" s="5">
         <v>1277</v>
       </c>
-      <c r="S19" s="5">
+      <c r="AB19" s="5">
         <v>1322</v>
       </c>
-      <c r="T19" s="5">
+      <c r="AC19" s="5">
         <v>1369</v>
       </c>
-      <c r="U19" s="5">
+      <c r="AD19" s="5">
         <v>1494</v>
       </c>
-      <c r="V19" s="5">
+      <c r="AE19" s="5">
         <v>1859</v>
       </c>
-      <c r="W19" s="4">
-        <f>+W18-W20</f>
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF19" s="4">
+        <v>1792</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="20" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ref="C20:K20" si="2">+C18-C19</f>
+        <f t="shared" ref="C20:K20" si="3">+C18-C19</f>
         <v>1171</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>865</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1072</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1027</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1236</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1332</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1158</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1406</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1453</v>
       </c>
       <c r="L20" s="5">
@@ -1965,75 +2266,92 @@
         <v>1350.5</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" ref="M20:N20" si="3">+M18*0.73</f>
+        <f t="shared" ref="M20:N20" si="4">+M18*0.73</f>
         <v>1436.567</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="3"/>
-        <v>1465.4750000000001</v>
-      </c>
-      <c r="P20" s="5">
-        <f t="shared" ref="P20" si="4">+P18-P19</f>
-        <v>3042</v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" ref="Q20" si="5">+Q18-Q19</f>
-        <v>3547</v>
-      </c>
+        <f>+N18-N19</f>
+        <v>1426</v>
+      </c>
+      <c r="O20" s="5">
+        <f>+O18-O19</f>
+        <v>1556</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5">
         <f>+R18-R19</f>
-        <v>3873</v>
+        <v>1422</v>
       </c>
       <c r="S20" s="5">
         <f>+S18-S19</f>
+        <v>1397</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="Y20" s="5">
+        <f t="shared" ref="Y20" si="5">+Y18-Y19</f>
+        <v>3042</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" ref="Z20" si="6">+Z18-Z19</f>
+        <v>3547</v>
+      </c>
+      <c r="AA20" s="5">
+        <f>+AA18-AA19</f>
+        <v>3873</v>
+      </c>
+      <c r="AB20" s="5">
+        <f>+AB18-AB19</f>
         <v>3628</v>
       </c>
-      <c r="T20" s="5">
-        <f>+T18-T19</f>
+      <c r="AC20" s="5">
+        <f>+AC18-AC19</f>
         <v>4168</v>
       </c>
-      <c r="U20" s="5">
-        <f>+U18-U19</f>
+      <c r="AD20" s="5">
+        <f>+AD18-AD19</f>
         <v>4135</v>
       </c>
-      <c r="V20" s="5">
-        <f>+V18-V19</f>
+      <c r="AE20" s="5">
+        <f>+AE18-AE19</f>
         <v>5132</v>
       </c>
-      <c r="W20" s="4">
-        <f>+W18*0.73</f>
-        <v>5694</v>
-      </c>
-      <c r="X20" s="4">
-        <f>+X18*0.735</f>
-        <v>5904.99</v>
-      </c>
-      <c r="Y20" s="4">
-        <f>+Y18*0.74</f>
-        <v>6123.5147999999999</v>
-      </c>
-      <c r="Z20" s="4">
-        <f>+Z18*0.745</f>
-        <v>6349.8365969999995</v>
-      </c>
-      <c r="AA20" s="4">
-        <f>+AA18*0.75</f>
-        <v>6584.2265385000001</v>
-      </c>
-      <c r="AB20" s="4">
-        <f t="shared" ref="AB20:AD20" si="6">+AB18*0.75</f>
-        <v>6781.7533346550008</v>
-      </c>
-      <c r="AC20" s="4">
-        <f t="shared" si="6"/>
-        <v>6985.2059346946517</v>
-      </c>
-      <c r="AD20" s="4">
-        <f t="shared" si="6"/>
-        <v>7194.7621127354905</v>
-      </c>
-    </row>
-    <row r="21" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF20" s="5">
+        <f>+AF18-AF19</f>
+        <v>5634</v>
+      </c>
+      <c r="AG20" s="4">
+        <f>+AG18-AG19</f>
+        <v>5852</v>
+      </c>
+      <c r="AH20" s="4">
+        <f>+AH18*0.74</f>
+        <v>5763.7564000000002</v>
+      </c>
+      <c r="AI20" s="4">
+        <f>+AI18*0.745</f>
+        <v>5976.7817210000012</v>
+      </c>
+      <c r="AJ20" s="4">
+        <f>+AJ18*0.75</f>
+        <v>6197.4011805000009</v>
+      </c>
+      <c r="AK20" s="4">
+        <f t="shared" ref="AK20:AM20" si="7">+AK18*0.75</f>
+        <v>6383.3232159150002</v>
+      </c>
+      <c r="AL20" s="4">
+        <f t="shared" si="7"/>
+        <v>6574.8229123924502</v>
+      </c>
+      <c r="AM20" s="4">
+        <f t="shared" si="7"/>
+        <v>6772.0675997642238</v>
+      </c>
+    </row>
+    <row r="21" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -2069,68 +2387,79 @@
         <v>558.53</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:M23" si="7">+I21*1.01</f>
+        <f t="shared" ref="M21:M23" si="8">+I21*1.01</f>
         <v>544.39</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" ref="N21:N23" si="8">+J21*1.01</f>
-        <v>584.79</v>
-      </c>
-      <c r="P21" s="5">
+        <v>635</v>
+      </c>
+      <c r="O21" s="5">
+        <v>596</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5">
+        <v>638</v>
+      </c>
+      <c r="S21" s="5">
+        <v>629</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="Y21" s="5">
         <v>1109</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Z21" s="5">
         <v>1205</v>
       </c>
-      <c r="R21" s="5">
+      <c r="AA21" s="5">
         <v>1320</v>
       </c>
-      <c r="S21" s="5">
+      <c r="AB21" s="5">
         <v>1433</v>
       </c>
-      <c r="T21" s="5">
+      <c r="AC21" s="5">
         <v>1559</v>
       </c>
-      <c r="U21" s="5">
+      <c r="AD21" s="5">
         <v>1778</v>
       </c>
-      <c r="V21" s="5">
+      <c r="AE21" s="5">
         <v>2186</v>
       </c>
-      <c r="W21" s="4">
-        <f>+V21*1.1</f>
-        <v>2404.6000000000004</v>
-      </c>
-      <c r="X21" s="4">
-        <f>+W21*1.01</f>
-        <v>2428.6460000000002</v>
-      </c>
-      <c r="Y21" s="4">
-        <f t="shared" ref="Y21:AD21" si="9">+X21*1.01</f>
-        <v>2452.93246</v>
-      </c>
-      <c r="Z21" s="4">
+      <c r="AF21" s="4">
+        <v>2328</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>2420</v>
+      </c>
+      <c r="AH21" s="4">
+        <f t="shared" ref="AH21:AM21" si="9">+AG21*1.01</f>
+        <v>2444.1999999999998</v>
+      </c>
+      <c r="AI21" s="4">
         <f t="shared" si="9"/>
-        <v>2477.4617846000001</v>
-      </c>
-      <c r="AA21" s="4">
+        <v>2468.6419999999998</v>
+      </c>
+      <c r="AJ21" s="4">
         <f t="shared" si="9"/>
-        <v>2502.2364024460003</v>
-      </c>
-      <c r="AB21" s="4">
+        <v>2493.3284199999998</v>
+      </c>
+      <c r="AK21" s="4">
         <f t="shared" si="9"/>
-        <v>2527.2587664704602</v>
-      </c>
-      <c r="AC21" s="4">
+        <v>2518.2617041999997</v>
+      </c>
+      <c r="AL21" s="4">
         <f t="shared" si="9"/>
-        <v>2552.5313541351647</v>
-      </c>
-      <c r="AD21" s="4">
+        <v>2543.4443212419997</v>
+      </c>
+      <c r="AM21" s="4">
         <f t="shared" si="9"/>
-        <v>2578.0566676765166</v>
-      </c>
-    </row>
-    <row r="22" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2568.8787644544195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
@@ -2166,68 +2495,79 @@
         <v>235.33</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>295.93</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="8"/>
-        <v>247.45</v>
-      </c>
-      <c r="P22" s="5">
+        <v>255</v>
+      </c>
+      <c r="O22" s="5">
+        <v>229</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5">
+        <v>234</v>
+      </c>
+      <c r="S22" s="5">
+        <v>205</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="Y22" s="5">
         <v>622</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Z22" s="5">
         <v>673</v>
       </c>
-      <c r="R22" s="5">
+      <c r="AA22" s="5">
         <v>641</v>
       </c>
-      <c r="S22" s="5">
+      <c r="AB22" s="5">
         <v>702</v>
       </c>
-      <c r="T22" s="5">
+      <c r="AC22" s="5">
         <v>631</v>
       </c>
-      <c r="U22" s="5">
+      <c r="AD22" s="5">
         <v>689</v>
       </c>
-      <c r="V22" s="5">
+      <c r="AE22" s="5">
         <v>961</v>
       </c>
-      <c r="W22" s="4">
-        <f>+V22*1.1</f>
-        <v>1057.1000000000001</v>
-      </c>
-      <c r="X22" s="4">
-        <f t="shared" ref="X22:AD22" si="11">+W22*1.01</f>
-        <v>1067.671</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="AF22" s="4">
+        <v>978</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>1019</v>
+      </c>
+      <c r="AH22" s="4">
+        <f t="shared" ref="AG22:AM22" si="11">+AG22*1.01</f>
+        <v>1029.19</v>
+      </c>
+      <c r="AI22" s="4">
         <f t="shared" si="11"/>
-        <v>1078.34771</v>
-      </c>
-      <c r="Z22" s="4">
+        <v>1039.4819</v>
+      </c>
+      <c r="AJ22" s="4">
         <f t="shared" si="11"/>
-        <v>1089.1311871</v>
-      </c>
-      <c r="AA22" s="4">
+        <v>1049.8767190000001</v>
+      </c>
+      <c r="AK22" s="4">
         <f t="shared" si="11"/>
-        <v>1100.022498971</v>
-      </c>
-      <c r="AB22" s="4">
+        <v>1060.3754861900002</v>
+      </c>
+      <c r="AL22" s="4">
         <f t="shared" si="11"/>
-        <v>1111.02272396071</v>
-      </c>
-      <c r="AC22" s="4">
+        <v>1070.9792410519001</v>
+      </c>
+      <c r="AM22" s="4">
         <f t="shared" si="11"/>
-        <v>1122.1329512003172</v>
-      </c>
-      <c r="AD22" s="4">
-        <f t="shared" si="11"/>
-        <v>1133.3542807123204</v>
-      </c>
-    </row>
-    <row r="23" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1081.689033462419</v>
+      </c>
+    </row>
+    <row r="23" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -2263,68 +2603,79 @@
         <v>177.76</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>164.63</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="8"/>
-        <v>166.65</v>
-      </c>
-      <c r="P23" s="5">
+        <v>224</v>
+      </c>
+      <c r="O23" s="5">
+        <v>163</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5">
+        <v>185</v>
+      </c>
+      <c r="S23" s="5">
+        <v>180</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="Y23" s="5">
         <v>406</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Z23" s="5">
         <v>439</v>
       </c>
-      <c r="R23" s="5">
+      <c r="AA23" s="5">
         <v>469</v>
       </c>
-      <c r="S23" s="5">
+      <c r="AB23" s="5">
         <v>460</v>
       </c>
-      <c r="T23" s="5">
+      <c r="AC23" s="5">
         <v>506</v>
       </c>
-      <c r="U23" s="5">
+      <c r="AD23" s="5">
         <v>592</v>
       </c>
-      <c r="V23" s="5">
+      <c r="AE23" s="5">
         <v>673</v>
       </c>
-      <c r="W23" s="4">
-        <f>+V23*1.1</f>
-        <v>740.30000000000007</v>
-      </c>
-      <c r="X23" s="4">
-        <f t="shared" ref="X23:AD23" si="12">+W23*1.01</f>
-        <v>747.70300000000009</v>
-      </c>
-      <c r="Y23" s="4">
+      <c r="AF23" s="4">
+        <v>727</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>691</v>
+      </c>
+      <c r="AH23" s="4">
+        <f t="shared" ref="AG23:AM23" si="12">+AG23*1.01</f>
+        <v>697.91</v>
+      </c>
+      <c r="AI23" s="4">
         <f t="shared" si="12"/>
-        <v>755.1800300000001</v>
-      </c>
-      <c r="Z23" s="4">
+        <v>704.88909999999998</v>
+      </c>
+      <c r="AJ23" s="4">
         <f t="shared" si="12"/>
-        <v>762.73183030000007</v>
-      </c>
-      <c r="AA23" s="4">
+        <v>711.93799100000001</v>
+      </c>
+      <c r="AK23" s="4">
         <f t="shared" si="12"/>
-        <v>770.35914860300011</v>
-      </c>
-      <c r="AB23" s="4">
+        <v>719.05737091000003</v>
+      </c>
+      <c r="AL23" s="4">
         <f t="shared" si="12"/>
-        <v>778.06274008903017</v>
-      </c>
-      <c r="AC23" s="4">
+        <v>726.24794461910005</v>
+      </c>
+      <c r="AM23" s="4">
         <f t="shared" si="12"/>
-        <v>785.84336748992052</v>
-      </c>
-      <c r="AD23" s="4">
-        <f t="shared" si="12"/>
-        <v>793.7018011648197</v>
-      </c>
-    </row>
-    <row r="24" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>733.51042406529109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -2374,183 +2725,229 @@
       </c>
       <c r="N24" s="5">
         <f t="shared" si="14"/>
-        <v>998.89</v>
+        <v>1114</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" ref="O24:S24" si="15">SUM(O21:O23)</f>
+        <v>988</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" ref="P24" si="15">SUM(P21:P23)</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="15"/>
+        <v>1057</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="15"/>
+        <v>1014</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="Y24" s="5">
+        <f t="shared" ref="Y24" si="16">SUM(Y21:Y23)</f>
         <v>2137</v>
       </c>
-      <c r="Q24" s="5">
-        <f t="shared" ref="Q24" si="16">SUM(Q21:Q23)</f>
+      <c r="Z24" s="5">
+        <f t="shared" ref="Z24" si="17">SUM(Z21:Z23)</f>
         <v>2317</v>
       </c>
-      <c r="R24" s="5">
-        <f t="shared" ref="R24:W24" si="17">SUM(R21:R23)</f>
+      <c r="AA24" s="5">
+        <f t="shared" ref="AA24:AF24" si="18">SUM(AA21:AA23)</f>
         <v>2430</v>
-      </c>
-      <c r="S24" s="5">
-        <f t="shared" si="17"/>
-        <v>2595</v>
-      </c>
-      <c r="T24" s="5">
-        <f t="shared" si="17"/>
-        <v>2696</v>
-      </c>
-      <c r="U24" s="5">
-        <f t="shared" si="17"/>
-        <v>3059</v>
-      </c>
-      <c r="V24" s="5">
-        <f t="shared" si="17"/>
-        <v>3820</v>
-      </c>
-      <c r="W24" s="5">
-        <f t="shared" si="17"/>
-        <v>4202.0000000000009</v>
-      </c>
-      <c r="X24" s="5">
-        <f t="shared" ref="X24:AD24" si="18">SUM(X21:X23)</f>
-        <v>4244.0200000000004</v>
-      </c>
-      <c r="Y24" s="5">
-        <f t="shared" si="18"/>
-        <v>4286.4602000000004</v>
-      </c>
-      <c r="Z24" s="5">
-        <f t="shared" si="18"/>
-        <v>4329.3248020000001</v>
-      </c>
-      <c r="AA24" s="5">
-        <f t="shared" si="18"/>
-        <v>4372.6180500200007</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="18"/>
-        <v>4416.3442305201997</v>
+        <v>2595</v>
       </c>
       <c r="AC24" s="5">
         <f t="shared" si="18"/>
-        <v>4460.5076728254026</v>
+        <v>2696</v>
       </c>
       <c r="AD24" s="5">
         <f t="shared" si="18"/>
-        <v>4505.1127495536566</v>
-      </c>
-    </row>
-    <row r="25" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3059</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="18"/>
+        <v>3820</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" si="18"/>
+        <v>4033</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" ref="AG24:AM24" si="19">SUM(AG21:AG23)</f>
+        <v>4130</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="19"/>
+        <v>4171.3</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="19"/>
+        <v>4213.0129999999999</v>
+      </c>
+      <c r="AJ24" s="5">
+        <f t="shared" si="19"/>
+        <v>4255.1431299999995</v>
+      </c>
+      <c r="AK24" s="5">
+        <f t="shared" si="19"/>
+        <v>4297.6945612999998</v>
+      </c>
+      <c r="AL24" s="5">
+        <f t="shared" si="19"/>
+        <v>4340.6715069129996</v>
+      </c>
+      <c r="AM24" s="5">
+        <f t="shared" si="19"/>
+        <v>4384.0782219821294</v>
+      </c>
+    </row>
+    <row r="25" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:K25" si="19">C20-C24</f>
+        <f t="shared" ref="C25:K25" si="20">C20-C24</f>
         <v>476</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>155</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>362</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>370</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>417</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>480</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" ref="L25:N25" si="20">L20-L24</f>
+        <f t="shared" ref="L25:N25" si="21">L20-L24</f>
         <v>378.88</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>431.61700000000008</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="20"/>
-        <v>466.58500000000015</v>
+        <f t="shared" si="21"/>
+        <v>312</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" ref="O25:S25" si="22">O20-O24</f>
+        <v>568</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" ref="P25" si="21">P20-P24</f>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="22"/>
+        <v>365</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="22"/>
+        <v>383</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="Y25" s="5">
+        <f t="shared" ref="Y25" si="23">Y20-Y24</f>
         <v>905</v>
       </c>
-      <c r="Q25" s="5">
-        <f t="shared" ref="Q25" si="22">Q20-Q24</f>
+      <c r="Z25" s="5">
+        <f t="shared" ref="Z25" si="24">Z20-Z24</f>
         <v>1230</v>
       </c>
-      <c r="R25" s="5">
-        <f t="shared" ref="R25:W25" si="23">R20-R24</f>
+      <c r="AA25" s="5">
+        <f t="shared" ref="AA25:AF25" si="25">AA20-AA24</f>
         <v>1443</v>
       </c>
-      <c r="S25" s="5">
-        <f t="shared" si="23"/>
+      <c r="AB25" s="5">
+        <f t="shared" si="25"/>
         <v>1033</v>
       </c>
-      <c r="T25" s="5">
-        <f t="shared" si="23"/>
+      <c r="AC25" s="5">
+        <f t="shared" si="25"/>
         <v>1472</v>
       </c>
-      <c r="U25" s="5">
-        <f t="shared" si="23"/>
+      <c r="AD25" s="5">
+        <f t="shared" si="25"/>
         <v>1076</v>
       </c>
-      <c r="V25" s="5">
-        <f t="shared" si="23"/>
+      <c r="AE25" s="5">
+        <f t="shared" si="25"/>
         <v>1312</v>
       </c>
-      <c r="W25" s="5">
-        <f t="shared" si="23"/>
-        <v>1491.9999999999991</v>
-      </c>
-      <c r="X25" s="5">
-        <f t="shared" ref="X25:AD25" si="24">X20-X24</f>
-        <v>1660.9699999999993</v>
-      </c>
-      <c r="Y25" s="5">
-        <f t="shared" si="24"/>
-        <v>1837.0545999999995</v>
-      </c>
-      <c r="Z25" s="5">
-        <f t="shared" si="24"/>
-        <v>2020.5117949999994</v>
-      </c>
-      <c r="AA25" s="5">
-        <f t="shared" si="24"/>
-        <v>2211.6084884799993</v>
-      </c>
-      <c r="AB25" s="5">
-        <f t="shared" si="24"/>
-        <v>2365.4091041348011</v>
-      </c>
-      <c r="AC25" s="5">
-        <f t="shared" si="24"/>
-        <v>2524.6982618692491</v>
-      </c>
-      <c r="AD25" s="5">
-        <f t="shared" si="24"/>
-        <v>2689.6493631818339</v>
-      </c>
-    </row>
-    <row r="26" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="5">
+        <f t="shared" si="25"/>
+        <v>1601</v>
+      </c>
+      <c r="AG25" s="5">
+        <f t="shared" ref="AG25:AM25" si="26">AG20-AG24</f>
+        <v>1722</v>
+      </c>
+      <c r="AH25" s="5">
+        <f t="shared" si="26"/>
+        <v>1592.4564</v>
+      </c>
+      <c r="AI25" s="5">
+        <f t="shared" si="26"/>
+        <v>1763.7687210000013</v>
+      </c>
+      <c r="AJ25" s="5">
+        <f t="shared" si="26"/>
+        <v>1942.2580505000014</v>
+      </c>
+      <c r="AK25" s="5">
+        <f t="shared" si="26"/>
+        <v>2085.6286546150004</v>
+      </c>
+      <c r="AL25" s="5">
+        <f t="shared" si="26"/>
+        <v>2234.1514054794507</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" si="26"/>
+        <v>2387.9893777820944</v>
+      </c>
+    </row>
+    <row r="26" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -2583,175 +2980,210 @@
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="P26" s="5">
+      <c r="N26" s="5">
+        <v>6</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5">
+        <v>26</v>
+      </c>
+      <c r="S26" s="5">
+        <v>30</v>
+      </c>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="Y26" s="5">
         <v>-21</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Z26" s="5">
         <v>-14</v>
       </c>
-      <c r="R26" s="5">
+      <c r="AA26" s="5">
         <v>15</v>
       </c>
-      <c r="S26" s="5">
+      <c r="AB26" s="5">
         <v>83</v>
       </c>
-      <c r="T26" s="5">
+      <c r="AC26" s="5">
         <v>63</v>
       </c>
-      <c r="U26" s="5">
+      <c r="AD26" s="5">
         <v>-29</v>
       </c>
-      <c r="V26" s="5">
+      <c r="AE26" s="5">
         <v>-48</v>
       </c>
-      <c r="W26" s="4">
-        <f>+V26</f>
-        <v>-48</v>
-      </c>
-      <c r="X26" s="4">
-        <f>+W37*$AG$36</f>
-        <v>15.596656000000003</v>
-      </c>
-      <c r="Y26" s="4">
-        <f t="shared" ref="Y26:AD26" si="25">+X37*$AG$36</f>
-        <v>29.009189247999998</v>
-      </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="25"/>
-        <v>43.93769956198399</v>
-      </c>
-      <c r="AA26" s="4">
-        <f t="shared" si="25"/>
-        <v>60.453295518479862</v>
-      </c>
-      <c r="AB26" s="4">
-        <f t="shared" si="25"/>
-        <v>78.629789790467697</v>
-      </c>
-      <c r="AC26" s="4">
-        <f t="shared" si="25"/>
-        <v>98.182100941869848</v>
-      </c>
-      <c r="AD26" s="4">
-        <f t="shared" si="25"/>
-        <v>119.16514384435879</v>
-      </c>
-    </row>
-    <row r="27" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF26" s="4">
+        <v>-6</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>71</v>
+      </c>
+      <c r="AH26" s="4">
+        <f t="shared" ref="AH26:AM26" si="27">+AG37*$AP$36</f>
+        <v>27.883976000000004</v>
+      </c>
+      <c r="AI26" s="4">
+        <f t="shared" si="27"/>
+        <v>40.846699008000009</v>
+      </c>
+      <c r="AJ26" s="4">
+        <f t="shared" si="27"/>
+        <v>55.283622368064016</v>
+      </c>
+      <c r="AK26" s="4">
+        <f t="shared" si="27"/>
+        <v>71.263955751008538</v>
+      </c>
+      <c r="AL26" s="4">
+        <f t="shared" si="27"/>
+        <v>88.519096633936613</v>
+      </c>
+      <c r="AM26" s="4">
+        <f t="shared" si="27"/>
+        <v>107.10046065084371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:K27" si="26">+C25+C26</f>
+        <f t="shared" ref="C27:K27" si="28">+C25+C26</f>
         <v>473</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>145</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>250</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>179</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>348</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>356</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>152</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>408</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>475</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" ref="L27:N27" si="27">+L25+L26</f>
+        <f t="shared" ref="L27:S27" si="29">+L25+L26</f>
         <v>378.88</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>431.61700000000008</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="27"/>
-        <v>466.58500000000015</v>
+        <f t="shared" si="29"/>
+        <v>318</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="29"/>
+        <v>568</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" ref="P27" si="28">+P25+P26</f>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="29"/>
+        <v>391</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="29"/>
+        <v>413</v>
+      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="Y27" s="5">
+        <f t="shared" ref="Y27" si="30">+Y25+Y26</f>
         <v>884</v>
       </c>
-      <c r="Q27" s="5">
-        <f t="shared" ref="Q27" si="29">+Q25+Q26</f>
+      <c r="Z27" s="5">
+        <f t="shared" ref="Z27" si="31">+Z25+Z26</f>
         <v>1216</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" ref="R27:W27" si="30">+R25+R26</f>
+      <c r="AA27" s="5">
+        <f t="shared" ref="AA27:AF27" si="32">+AA25+AA26</f>
         <v>1458</v>
       </c>
-      <c r="S27" s="5">
-        <f t="shared" si="30"/>
+      <c r="AB27" s="5">
+        <f t="shared" si="32"/>
         <v>1116</v>
       </c>
-      <c r="T27" s="5">
-        <f t="shared" si="30"/>
+      <c r="AC27" s="5">
+        <f t="shared" si="32"/>
         <v>1535</v>
       </c>
-      <c r="U27" s="5">
-        <f t="shared" si="30"/>
+      <c r="AD27" s="5">
+        <f t="shared" si="32"/>
         <v>1047</v>
       </c>
-      <c r="V27" s="5">
-        <f t="shared" si="30"/>
+      <c r="AE27" s="5">
+        <f t="shared" si="32"/>
         <v>1264</v>
       </c>
-      <c r="W27" s="5">
-        <f t="shared" si="30"/>
-        <v>1443.9999999999991</v>
-      </c>
-      <c r="X27" s="5">
-        <f t="shared" ref="X27:AD27" si="31">+X25+X26</f>
-        <v>1676.5666559999993</v>
-      </c>
-      <c r="Y27" s="5">
-        <f t="shared" si="31"/>
-        <v>1866.0637892479995</v>
-      </c>
-      <c r="Z27" s="5">
-        <f t="shared" si="31"/>
-        <v>2064.4494945619836</v>
-      </c>
-      <c r="AA27" s="5">
-        <f t="shared" si="31"/>
-        <v>2272.0617839984793</v>
-      </c>
-      <c r="AB27" s="5">
-        <f t="shared" si="31"/>
-        <v>2444.0388939252689</v>
-      </c>
-      <c r="AC27" s="5">
-        <f t="shared" si="31"/>
-        <v>2622.8803628111191</v>
-      </c>
-      <c r="AD27" s="5">
-        <f t="shared" si="31"/>
-        <v>2808.8145070261926</v>
-      </c>
-    </row>
-    <row r="28" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF27" s="5">
+        <f t="shared" si="32"/>
+        <v>1595</v>
+      </c>
+      <c r="AG27" s="5">
+        <f t="shared" ref="AG27:AM27" si="33">+AG25+AG26</f>
+        <v>1793</v>
+      </c>
+      <c r="AH27" s="5">
+        <f t="shared" si="33"/>
+        <v>1620.3403760000001</v>
+      </c>
+      <c r="AI27" s="5">
+        <f t="shared" si="33"/>
+        <v>1804.6154200080014</v>
+      </c>
+      <c r="AJ27" s="5">
+        <f t="shared" si="33"/>
+        <v>1997.5416728680655</v>
+      </c>
+      <c r="AK27" s="5">
+        <f t="shared" si="33"/>
+        <v>2156.8926103660087</v>
+      </c>
+      <c r="AL27" s="5">
+        <f t="shared" si="33"/>
+        <v>2322.6705021133871</v>
+      </c>
+      <c r="AM27" s="5">
+        <f t="shared" si="33"/>
+        <v>2495.089838432938</v>
+      </c>
+    </row>
+    <row r="28" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -2791,878 +3223,933 @@
         <v>86.323400000000021</v>
       </c>
       <c r="N28" s="5">
-        <f>+N27*0.2</f>
-        <v>93.317000000000036</v>
-      </c>
-      <c r="P28" s="5">
+        <v>193</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5">
+        <v>78</v>
+      </c>
+      <c r="S28" s="5">
+        <v>114</v>
+      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="Y28" s="5">
         <v>0</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Z28" s="5">
         <v>243</v>
       </c>
-      <c r="R28" s="5">
+      <c r="AA28" s="5">
         <v>406</v>
       </c>
-      <c r="S28" s="5">
+      <c r="AB28" s="5">
         <v>60</v>
       </c>
-      <c r="T28" s="5">
+      <c r="AC28" s="5">
         <v>0</v>
       </c>
-      <c r="U28" s="5">
+      <c r="AD28" s="5">
         <v>180</v>
       </c>
-      <c r="V28" s="5">
+      <c r="AE28" s="5">
         <v>292</v>
       </c>
-      <c r="W28" s="4">
-        <f>+W27*0.2</f>
-        <v>288.79999999999984</v>
-      </c>
-      <c r="X28" s="4">
-        <f t="shared" ref="X28:AD28" si="32">+X27*0.2</f>
-        <v>335.31333119999988</v>
-      </c>
-      <c r="Y28" s="4">
-        <f t="shared" si="32"/>
-        <v>373.21275784959994</v>
-      </c>
-      <c r="Z28" s="4">
-        <f t="shared" si="32"/>
-        <v>412.88989891239675</v>
-      </c>
-      <c r="AA28" s="4">
-        <f t="shared" si="32"/>
-        <v>454.41235679969589</v>
-      </c>
-      <c r="AB28" s="4">
-        <f t="shared" si="32"/>
-        <v>488.80777878505381</v>
-      </c>
-      <c r="AC28" s="4">
-        <f t="shared" si="32"/>
-        <v>524.57607256222389</v>
-      </c>
-      <c r="AD28" s="4">
-        <f t="shared" si="32"/>
-        <v>561.76290140523849</v>
-      </c>
-    </row>
-    <row r="29" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="4">
+        <v>524</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>316</v>
+      </c>
+      <c r="AH28" s="4">
+        <f t="shared" ref="AG28:AM28" si="34">+AH27*0.2</f>
+        <v>324.06807520000007</v>
+      </c>
+      <c r="AI28" s="4">
+        <f t="shared" si="34"/>
+        <v>360.92308400160027</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f t="shared" si="34"/>
+        <v>399.50833457361313</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="34"/>
+        <v>431.37852207320179</v>
+      </c>
+      <c r="AL28" s="4">
+        <f t="shared" si="34"/>
+        <v>464.53410042267745</v>
+      </c>
+      <c r="AM28" s="4">
+        <f t="shared" si="34"/>
+        <v>499.01796768658761</v>
+      </c>
+    </row>
+    <row r="29" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:N29" si="33">+C27-C28</f>
+        <f t="shared" ref="C29:S29" si="35">+C27-C28</f>
         <v>370</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>191</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>90</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>244</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>324</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>127</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>277</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>350</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>303.10399999999998</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>345.29360000000008</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="33"/>
-        <v>373.26800000000014</v>
+        <f t="shared" si="35"/>
+        <v>125</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="35"/>
+        <v>568</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" ref="P29" si="34">+P27-P28</f>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="35"/>
+        <v>313</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="35"/>
+        <v>299</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="Y29" s="5">
+        <f t="shared" ref="Y29" si="36">+Y27-Y28</f>
         <v>884</v>
       </c>
-      <c r="Q29" s="5">
-        <f t="shared" ref="Q29" si="35">+Q27-Q28</f>
+      <c r="Z29" s="5">
+        <f t="shared" ref="Z29" si="37">+Z27-Z28</f>
         <v>973</v>
       </c>
-      <c r="R29" s="5">
-        <f t="shared" ref="R29:W29" si="36">+R27-R28</f>
+      <c r="AA29" s="5">
+        <f t="shared" ref="AA29:AF29" si="38">+AA27-AA28</f>
         <v>1052</v>
       </c>
-      <c r="S29" s="5">
-        <f t="shared" si="36"/>
+      <c r="AB29" s="5">
+        <f t="shared" si="38"/>
         <v>1056</v>
       </c>
-      <c r="T29" s="5">
-        <f t="shared" si="36"/>
+      <c r="AC29" s="5">
+        <f t="shared" si="38"/>
         <v>1535</v>
       </c>
-      <c r="U29" s="5">
-        <f t="shared" si="36"/>
+      <c r="AD29" s="5">
+        <f t="shared" si="38"/>
         <v>867</v>
       </c>
-      <c r="V29" s="5">
-        <f t="shared" si="36"/>
+      <c r="AE29" s="5">
+        <f t="shared" si="38"/>
         <v>972</v>
       </c>
-      <c r="W29" s="5">
-        <f t="shared" si="36"/>
-        <v>1155.1999999999994</v>
-      </c>
-      <c r="X29" s="5">
-        <f t="shared" ref="X29:AD29" si="37">+X27-X28</f>
-        <v>1341.2533247999995</v>
-      </c>
-      <c r="Y29" s="5">
-        <f t="shared" si="37"/>
-        <v>1492.8510313983995</v>
-      </c>
-      <c r="Z29" s="5">
-        <f t="shared" si="37"/>
-        <v>1651.5595956495868</v>
-      </c>
-      <c r="AA29" s="5">
-        <f t="shared" si="37"/>
-        <v>1817.6494271987835</v>
-      </c>
-      <c r="AB29" s="5">
-        <f t="shared" si="37"/>
-        <v>1955.231115140215</v>
-      </c>
-      <c r="AC29" s="5">
-        <f t="shared" si="37"/>
-        <v>2098.3042902488951</v>
-      </c>
-      <c r="AD29" s="5">
-        <f t="shared" si="37"/>
-        <v>2247.051605620954</v>
-      </c>
-      <c r="AE29" s="4">
-        <f>+AD29*(1+$AG$34)</f>
-        <v>2224.5810895647446</v>
-      </c>
-      <c r="AF29" s="4">
-        <f t="shared" ref="AF29:CQ29" si="38">+AE29*(1+$AG$34)</f>
-        <v>2202.3352786690971</v>
-      </c>
-      <c r="AG29" s="4">
+      <c r="AF29" s="5">
         <f t="shared" si="38"/>
-        <v>2180.3119258824063</v>
-      </c>
-      <c r="AH29" s="4">
-        <f t="shared" si="38"/>
-        <v>2158.5088066235821</v>
-      </c>
-      <c r="AI29" s="4">
-        <f t="shared" si="38"/>
-        <v>2136.9237185573461</v>
-      </c>
-      <c r="AJ29" s="4">
-        <f t="shared" si="38"/>
-        <v>2115.5544813717725</v>
-      </c>
-      <c r="AK29" s="4">
-        <f t="shared" si="38"/>
-        <v>2094.3989365580546</v>
-      </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="38"/>
-        <v>2073.4549471924743</v>
-      </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="38"/>
-        <v>2052.7203977205495</v>
+        <v>1071</v>
+      </c>
+      <c r="AG29" s="5">
+        <f t="shared" ref="AG29:AM29" si="39">+AG27-AG28</f>
+        <v>1477</v>
+      </c>
+      <c r="AH29" s="5">
+        <f t="shared" si="39"/>
+        <v>1296.2723008</v>
+      </c>
+      <c r="AI29" s="5">
+        <f t="shared" si="39"/>
+        <v>1443.6923360064011</v>
+      </c>
+      <c r="AJ29" s="5">
+        <f t="shared" si="39"/>
+        <v>1598.0333382944523</v>
+      </c>
+      <c r="AK29" s="5">
+        <f t="shared" si="39"/>
+        <v>1725.5140882928069</v>
+      </c>
+      <c r="AL29" s="5">
+        <f t="shared" si="39"/>
+        <v>1858.1364016907096</v>
+      </c>
+      <c r="AM29" s="5">
+        <f t="shared" si="39"/>
+        <v>1996.0718707463504</v>
       </c>
       <c r="AN29" s="4">
-        <f t="shared" si="38"/>
-        <v>2032.193193743344</v>
+        <f>+AM29*(1+$AP$34)</f>
+        <v>1976.111152038887</v>
       </c>
       <c r="AO29" s="4">
-        <f t="shared" si="38"/>
-        <v>2011.8712618059105</v>
+        <f t="shared" ref="AO29:CZ29" si="40">+AN29*(1+$AP$34)</f>
+        <v>1956.3500405184982</v>
       </c>
       <c r="AP29" s="4">
-        <f t="shared" si="38"/>
-        <v>1991.7525491878514</v>
+        <f t="shared" si="40"/>
+        <v>1936.7865401133131</v>
       </c>
       <c r="AQ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1971.835023695973</v>
+        <f t="shared" si="40"/>
+        <v>1917.4186747121798</v>
       </c>
       <c r="AR29" s="4">
-        <f t="shared" si="38"/>
-        <v>1952.1166734590131</v>
+        <f t="shared" si="40"/>
+        <v>1898.2444879650579</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="38"/>
-        <v>1932.5955067244229</v>
+        <f t="shared" si="40"/>
+        <v>1879.2620430854074</v>
       </c>
       <c r="AT29" s="4">
-        <f t="shared" si="38"/>
-        <v>1913.2695516571787</v>
+        <f t="shared" si="40"/>
+        <v>1860.4694226545532</v>
       </c>
       <c r="AU29" s="4">
-        <f t="shared" si="38"/>
-        <v>1894.1368561406068</v>
+        <f t="shared" si="40"/>
+        <v>1841.8647284280078</v>
       </c>
       <c r="AV29" s="4">
-        <f t="shared" si="38"/>
-        <v>1875.1954875792007</v>
+        <f t="shared" si="40"/>
+        <v>1823.4460811437277</v>
       </c>
       <c r="AW29" s="4">
-        <f t="shared" si="38"/>
-        <v>1856.4435327034087</v>
+        <f t="shared" si="40"/>
+        <v>1805.2116203322905</v>
       </c>
       <c r="AX29" s="4">
-        <f t="shared" si="38"/>
-        <v>1837.8790973763746</v>
+        <f t="shared" si="40"/>
+        <v>1787.1595041289677</v>
       </c>
       <c r="AY29" s="4">
-        <f t="shared" si="38"/>
-        <v>1819.5003064026109</v>
+        <f t="shared" si="40"/>
+        <v>1769.2879090876779</v>
       </c>
       <c r="AZ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1801.3053033385847</v>
+        <f t="shared" si="40"/>
+        <v>1751.595029996801</v>
       </c>
       <c r="BA29" s="4">
-        <f t="shared" si="38"/>
-        <v>1783.2922503051989</v>
+        <f t="shared" si="40"/>
+        <v>1734.0790796968331</v>
       </c>
       <c r="BB29" s="4">
-        <f t="shared" si="38"/>
-        <v>1765.4593278021468</v>
+        <f t="shared" si="40"/>
+        <v>1716.7382888998648</v>
       </c>
       <c r="BC29" s="4">
-        <f t="shared" si="38"/>
-        <v>1747.8047345241253</v>
+        <f t="shared" si="40"/>
+        <v>1699.5709060108661</v>
       </c>
       <c r="BD29" s="4">
-        <f t="shared" si="38"/>
-        <v>1730.326687178884</v>
+        <f t="shared" si="40"/>
+        <v>1682.5751969507573</v>
       </c>
       <c r="BE29" s="4">
-        <f t="shared" si="38"/>
-        <v>1713.0234203070952</v>
+        <f t="shared" si="40"/>
+        <v>1665.7494449812498</v>
       </c>
       <c r="BF29" s="4">
-        <f t="shared" si="38"/>
-        <v>1695.8931861040242</v>
+        <f t="shared" si="40"/>
+        <v>1649.0919505314373</v>
       </c>
       <c r="BG29" s="4">
-        <f t="shared" si="38"/>
-        <v>1678.9342542429838</v>
+        <f t="shared" si="40"/>
+        <v>1632.6010310261229</v>
       </c>
       <c r="BH29" s="4">
-        <f t="shared" si="38"/>
-        <v>1662.1449117005538</v>
+        <f t="shared" si="40"/>
+        <v>1616.2750207158617</v>
       </c>
       <c r="BI29" s="4">
-        <f t="shared" si="38"/>
-        <v>1645.5234625835483</v>
+        <f t="shared" si="40"/>
+        <v>1600.1122705087032</v>
       </c>
       <c r="BJ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1629.0682279577127</v>
+        <f t="shared" si="40"/>
+        <v>1584.1111478036162</v>
       </c>
       <c r="BK29" s="4">
-        <f t="shared" si="38"/>
-        <v>1612.7775456781355</v>
+        <f t="shared" si="40"/>
+        <v>1568.2700363255799</v>
       </c>
       <c r="BL29" s="4">
-        <f t="shared" si="38"/>
-        <v>1596.6497702213542</v>
+        <f t="shared" si="40"/>
+        <v>1552.587335962324</v>
       </c>
       <c r="BM29" s="4">
-        <f t="shared" si="38"/>
-        <v>1580.6832725191407</v>
+        <f t="shared" si="40"/>
+        <v>1537.0614626027007</v>
       </c>
       <c r="BN29" s="4">
-        <f t="shared" si="38"/>
-        <v>1564.8764397939492</v>
+        <f t="shared" si="40"/>
+        <v>1521.6908479766737</v>
       </c>
       <c r="BO29" s="4">
-        <f t="shared" si="38"/>
-        <v>1549.2276753960098</v>
+        <f t="shared" si="40"/>
+        <v>1506.473939496907</v>
       </c>
       <c r="BP29" s="4">
-        <f t="shared" si="38"/>
-        <v>1533.7353986420496</v>
+        <f t="shared" si="40"/>
+        <v>1491.4092001019378</v>
       </c>
       <c r="BQ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1518.3980446556291</v>
+        <f t="shared" si="40"/>
+        <v>1476.4951081009185</v>
       </c>
       <c r="BR29" s="4">
-        <f t="shared" si="38"/>
-        <v>1503.2140642090728</v>
+        <f t="shared" si="40"/>
+        <v>1461.7301570199093</v>
       </c>
       <c r="BS29" s="4">
-        <f t="shared" si="38"/>
-        <v>1488.1819235669821</v>
+        <f t="shared" si="40"/>
+        <v>1447.1128554497102</v>
       </c>
       <c r="BT29" s="4">
-        <f t="shared" si="38"/>
-        <v>1473.3001043313122</v>
+        <f t="shared" si="40"/>
+        <v>1432.641726895213</v>
       </c>
       <c r="BU29" s="4">
-        <f t="shared" si="38"/>
-        <v>1458.5671032879991</v>
+        <f t="shared" si="40"/>
+        <v>1418.3153096262608</v>
       </c>
       <c r="BV29" s="4">
-        <f t="shared" si="38"/>
-        <v>1443.981432255119</v>
+        <f t="shared" si="40"/>
+        <v>1404.1321565299982</v>
       </c>
       <c r="BW29" s="4">
-        <f t="shared" si="38"/>
-        <v>1429.5416179325678</v>
+        <f t="shared" si="40"/>
+        <v>1390.0908349646982</v>
       </c>
       <c r="BX29" s="4">
-        <f t="shared" si="38"/>
-        <v>1415.2462017532421</v>
+        <f t="shared" si="40"/>
+        <v>1376.1899266150513</v>
       </c>
       <c r="BY29" s="4">
-        <f t="shared" si="38"/>
-        <v>1401.0937397357097</v>
+        <f t="shared" si="40"/>
+        <v>1362.4280273489007</v>
       </c>
       <c r="BZ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1387.0828023383526</v>
+        <f t="shared" si="40"/>
+        <v>1348.8037470754118</v>
       </c>
       <c r="CA29" s="4">
-        <f t="shared" si="38"/>
-        <v>1373.211974314969</v>
+        <f t="shared" si="40"/>
+        <v>1335.3157096046577</v>
       </c>
       <c r="CB29" s="4">
-        <f t="shared" si="38"/>
-        <v>1359.4798545718193</v>
+        <f t="shared" si="40"/>
+        <v>1321.9625525086112</v>
       </c>
       <c r="CC29" s="4">
-        <f t="shared" si="38"/>
-        <v>1345.885056026101</v>
+        <f t="shared" si="40"/>
+        <v>1308.7429269835252</v>
       </c>
       <c r="CD29" s="4">
-        <f t="shared" si="38"/>
-        <v>1332.42620546584</v>
+        <f t="shared" si="40"/>
+        <v>1295.65549771369</v>
       </c>
       <c r="CE29" s="4">
-        <f t="shared" si="38"/>
-        <v>1319.1019434111815</v>
+        <f t="shared" si="40"/>
+        <v>1282.6989427365531</v>
       </c>
       <c r="CF29" s="4">
-        <f t="shared" si="38"/>
-        <v>1305.9109239770696</v>
+        <f t="shared" si="40"/>
+        <v>1269.8719533091876</v>
       </c>
       <c r="CG29" s="4">
-        <f t="shared" si="38"/>
-        <v>1292.8518147372988</v>
+        <f t="shared" si="40"/>
+        <v>1257.1732337760957</v>
       </c>
       <c r="CH29" s="4">
-        <f t="shared" si="38"/>
-        <v>1279.9232965899257</v>
+        <f t="shared" si="40"/>
+        <v>1244.6015014383347</v>
       </c>
       <c r="CI29" s="4">
-        <f t="shared" si="38"/>
-        <v>1267.1240636240263</v>
+        <f t="shared" si="40"/>
+        <v>1232.1554864239513</v>
       </c>
       <c r="CJ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1254.452822987786</v>
+        <f t="shared" si="40"/>
+        <v>1219.8339315597118</v>
       </c>
       <c r="CK29" s="4">
-        <f t="shared" si="38"/>
-        <v>1241.9082947579082</v>
+        <f t="shared" si="40"/>
+        <v>1207.6355922441146</v>
       </c>
       <c r="CL29" s="4">
-        <f t="shared" si="38"/>
-        <v>1229.4892118103292</v>
+        <f t="shared" si="40"/>
+        <v>1195.5592363216736</v>
       </c>
       <c r="CM29" s="4">
-        <f t="shared" si="38"/>
-        <v>1217.1943196922259</v>
+        <f t="shared" si="40"/>
+        <v>1183.6036439584568</v>
       </c>
       <c r="CN29" s="4">
-        <f t="shared" si="38"/>
-        <v>1205.0223764953037</v>
+        <f t="shared" si="40"/>
+        <v>1171.7676075188722</v>
       </c>
       <c r="CO29" s="4">
-        <f t="shared" si="38"/>
-        <v>1192.9721527303507</v>
+        <f t="shared" si="40"/>
+        <v>1160.0499314436834</v>
       </c>
       <c r="CP29" s="4">
-        <f t="shared" si="38"/>
-        <v>1181.042431203047</v>
+        <f t="shared" si="40"/>
+        <v>1148.4494321292466</v>
       </c>
       <c r="CQ29" s="4">
-        <f t="shared" si="38"/>
-        <v>1169.2320068910165</v>
+        <f t="shared" si="40"/>
+        <v>1136.9649378079541</v>
       </c>
       <c r="CR29" s="4">
-        <f t="shared" ref="CR29:FC29" si="39">+CQ29*(1+$AG$34)</f>
-        <v>1157.5396868221062</v>
+        <f t="shared" si="40"/>
+        <v>1125.5952884298745</v>
       </c>
       <c r="CS29" s="4">
-        <f t="shared" si="39"/>
-        <v>1145.9642899538851</v>
+        <f t="shared" si="40"/>
+        <v>1114.3393355455758</v>
       </c>
       <c r="CT29" s="4">
-        <f t="shared" si="39"/>
-        <v>1134.5046470543462</v>
+        <f t="shared" si="40"/>
+        <v>1103.1959421901199</v>
       </c>
       <c r="CU29" s="4">
-        <f t="shared" si="39"/>
-        <v>1123.1596005838028</v>
+        <f t="shared" si="40"/>
+        <v>1092.1639827682186</v>
       </c>
       <c r="CV29" s="4">
-        <f t="shared" si="39"/>
-        <v>1111.9280045779647</v>
+        <f t="shared" si="40"/>
+        <v>1081.2423429405364</v>
       </c>
       <c r="CW29" s="4">
-        <f t="shared" si="39"/>
-        <v>1100.8087245321849</v>
+        <f t="shared" si="40"/>
+        <v>1070.4299195111312</v>
       </c>
       <c r="CX29" s="4">
-        <f t="shared" si="39"/>
-        <v>1089.8006372868631</v>
+        <f t="shared" si="40"/>
+        <v>1059.7256203160198</v>
       </c>
       <c r="CY29" s="4">
-        <f t="shared" si="39"/>
-        <v>1078.9026309139945</v>
+        <f t="shared" si="40"/>
+        <v>1049.1283641128596</v>
       </c>
       <c r="CZ29" s="4">
-        <f t="shared" si="39"/>
-        <v>1068.1136046048546</v>
+        <f t="shared" si="40"/>
+        <v>1038.637080471731</v>
       </c>
       <c r="DA29" s="4">
-        <f t="shared" si="39"/>
-        <v>1057.432468558806</v>
+        <f t="shared" ref="DA29:FL29" si="41">+CZ29*(1+$AP$34)</f>
+        <v>1028.2507096670138</v>
       </c>
       <c r="DB29" s="4">
-        <f t="shared" si="39"/>
-        <v>1046.8581438732178</v>
+        <f t="shared" si="41"/>
+        <v>1017.9682025703436</v>
       </c>
       <c r="DC29" s="4">
-        <f t="shared" si="39"/>
-        <v>1036.3895624344857</v>
+        <f t="shared" si="41"/>
+        <v>1007.7885205446402</v>
       </c>
       <c r="DD29" s="4">
-        <f t="shared" si="39"/>
-        <v>1026.0256668101408</v>
+        <f t="shared" si="41"/>
+        <v>997.7106353391938</v>
       </c>
       <c r="DE29" s="4">
-        <f t="shared" si="39"/>
-        <v>1015.7654101420394</v>
+        <f t="shared" si="41"/>
+        <v>987.73352898580185</v>
       </c>
       <c r="DF29" s="4">
-        <f t="shared" si="39"/>
-        <v>1005.6077560406191</v>
+        <f t="shared" si="41"/>
+        <v>977.85619369594383</v>
       </c>
       <c r="DG29" s="4">
-        <f t="shared" si="39"/>
-        <v>995.5516784802129</v>
+        <f t="shared" si="41"/>
+        <v>968.07763175898435</v>
       </c>
       <c r="DH29" s="4">
-        <f t="shared" si="39"/>
-        <v>985.59616169541073</v>
+        <f t="shared" si="41"/>
+        <v>958.39685544139445</v>
       </c>
       <c r="DI29" s="4">
-        <f t="shared" si="39"/>
-        <v>975.74020007845661</v>
+        <f t="shared" si="41"/>
+        <v>948.81288688698055</v>
       </c>
       <c r="DJ29" s="4">
-        <f t="shared" si="39"/>
-        <v>965.98279807767199</v>
+        <f t="shared" si="41"/>
+        <v>939.32475801811074</v>
       </c>
       <c r="DK29" s="4">
-        <f t="shared" si="39"/>
-        <v>956.32297009689523</v>
+        <f t="shared" si="41"/>
+        <v>929.93151043792966</v>
       </c>
       <c r="DL29" s="4">
-        <f t="shared" si="39"/>
-        <v>946.75974039592631</v>
+        <f t="shared" si="41"/>
+        <v>920.63219533355038</v>
       </c>
       <c r="DM29" s="4">
-        <f t="shared" si="39"/>
-        <v>937.29214299196701</v>
+        <f t="shared" si="41"/>
+        <v>911.42587338021485</v>
       </c>
       <c r="DN29" s="4">
-        <f t="shared" si="39"/>
-        <v>927.91922156204737</v>
+        <f t="shared" si="41"/>
+        <v>902.31161464641275</v>
       </c>
       <c r="DO29" s="4">
-        <f t="shared" si="39"/>
-        <v>918.6400293464269</v>
+        <f t="shared" si="41"/>
+        <v>893.28849849994856</v>
       </c>
       <c r="DP29" s="4">
-        <f t="shared" si="39"/>
-        <v>909.45362905296258</v>
+        <f t="shared" si="41"/>
+        <v>884.35561351494903</v>
       </c>
       <c r="DQ29" s="4">
-        <f t="shared" si="39"/>
-        <v>900.35909276243297</v>
+        <f t="shared" si="41"/>
+        <v>875.51205737979956</v>
       </c>
       <c r="DR29" s="4">
-        <f t="shared" si="39"/>
-        <v>891.35550183480859</v>
+        <f t="shared" si="41"/>
+        <v>866.75693680600159</v>
       </c>
       <c r="DS29" s="4">
-        <f t="shared" si="39"/>
-        <v>882.44194681646047</v>
+        <f t="shared" si="41"/>
+        <v>858.08936743794152</v>
       </c>
       <c r="DT29" s="4">
-        <f t="shared" si="39"/>
-        <v>873.61752734829588</v>
+        <f t="shared" si="41"/>
+        <v>849.50847376356205</v>
       </c>
       <c r="DU29" s="4">
-        <f t="shared" si="39"/>
-        <v>864.88135207481287</v>
+        <f t="shared" si="41"/>
+        <v>841.01338902592647</v>
       </c>
       <c r="DV29" s="4">
-        <f t="shared" si="39"/>
-        <v>856.23253855406472</v>
+        <f t="shared" si="41"/>
+        <v>832.60325513566715</v>
       </c>
       <c r="DW29" s="4">
-        <f t="shared" si="39"/>
-        <v>847.67021316852401</v>
+        <f t="shared" si="41"/>
+        <v>824.27722258431049</v>
       </c>
       <c r="DX29" s="4">
-        <f t="shared" si="39"/>
-        <v>839.1935110368388</v>
+        <f t="shared" si="41"/>
+        <v>816.03445035846732</v>
       </c>
       <c r="DY29" s="4">
-        <f t="shared" si="39"/>
-        <v>830.80157592647038</v>
+        <f t="shared" si="41"/>
+        <v>807.8741058548826</v>
       </c>
       <c r="DZ29" s="4">
-        <f t="shared" si="39"/>
-        <v>822.49356016720571</v>
+        <f t="shared" si="41"/>
+        <v>799.79536479633373</v>
       </c>
       <c r="EA29" s="4">
-        <f t="shared" si="39"/>
-        <v>814.26862456553363</v>
+        <f t="shared" si="41"/>
+        <v>791.79741114837043</v>
       </c>
       <c r="EB29" s="4">
-        <f t="shared" si="39"/>
-        <v>806.12593831987829</v>
+        <f t="shared" si="41"/>
+        <v>783.87943703688677</v>
       </c>
       <c r="EC29" s="4">
-        <f t="shared" si="39"/>
-        <v>798.06467893667946</v>
+        <f t="shared" si="41"/>
+        <v>776.0406426665179</v>
       </c>
       <c r="ED29" s="4">
-        <f t="shared" si="39"/>
-        <v>790.08403214731266</v>
+        <f t="shared" si="41"/>
+        <v>768.28023623985268</v>
       </c>
       <c r="EE29" s="4">
-        <f t="shared" si="39"/>
-        <v>782.18319182583957</v>
+        <f t="shared" si="41"/>
+        <v>760.59743387745414</v>
       </c>
       <c r="EF29" s="4">
-        <f t="shared" si="39"/>
-        <v>774.36135990758112</v>
+        <f t="shared" si="41"/>
+        <v>752.99145953867958</v>
       </c>
       <c r="EG29" s="4">
-        <f t="shared" si="39"/>
-        <v>766.61774630850528</v>
+        <f t="shared" si="41"/>
+        <v>745.46154494329278</v>
       </c>
       <c r="EH29" s="4">
-        <f t="shared" si="39"/>
-        <v>758.95156884542018</v>
+        <f t="shared" si="41"/>
+        <v>738.00692949385984</v>
       </c>
       <c r="EI29" s="4">
-        <f t="shared" si="39"/>
-        <v>751.362053156966</v>
+        <f t="shared" si="41"/>
+        <v>730.62686019892124</v>
       </c>
       <c r="EJ29" s="4">
-        <f t="shared" si="39"/>
-        <v>743.8484326253963</v>
+        <f t="shared" si="41"/>
+        <v>723.32059159693199</v>
       </c>
       <c r="EK29" s="4">
-        <f t="shared" si="39"/>
-        <v>736.40994829914234</v>
+        <f t="shared" si="41"/>
+        <v>716.08738568096271</v>
       </c>
       <c r="EL29" s="4">
-        <f t="shared" si="39"/>
-        <v>729.04584881615096</v>
+        <f t="shared" si="41"/>
+        <v>708.92651182415307</v>
       </c>
       <c r="EM29" s="4">
-        <f t="shared" si="39"/>
-        <v>721.7553903279894</v>
+        <f t="shared" si="41"/>
+        <v>701.83724670591153</v>
       </c>
       <c r="EN29" s="4">
-        <f t="shared" si="39"/>
-        <v>714.53783642470955</v>
+        <f t="shared" si="41"/>
+        <v>694.81887423885246</v>
       </c>
       <c r="EO29" s="4">
-        <f t="shared" si="39"/>
-        <v>707.39245806046245</v>
+        <f t="shared" si="41"/>
+        <v>687.87068549646392</v>
       </c>
       <c r="EP29" s="4">
-        <f t="shared" si="39"/>
-        <v>700.31853347985782</v>
+        <f t="shared" si="41"/>
+        <v>680.99197864149926</v>
       </c>
       <c r="EQ29" s="4">
-        <f t="shared" si="39"/>
-        <v>693.31534814505926</v>
+        <f t="shared" si="41"/>
+        <v>674.18205885508428</v>
       </c>
       <c r="ER29" s="4">
-        <f t="shared" si="39"/>
-        <v>686.38219466360863</v>
+        <f t="shared" si="41"/>
+        <v>667.44023826653347</v>
       </c>
       <c r="ES29" s="4">
-        <f t="shared" si="39"/>
-        <v>679.51837271697252</v>
+        <f t="shared" si="41"/>
+        <v>660.76583588386814</v>
       </c>
       <c r="ET29" s="4">
-        <f t="shared" si="39"/>
-        <v>672.72318898980279</v>
+        <f t="shared" si="41"/>
+        <v>654.15817752502949</v>
       </c>
       <c r="EU29" s="4">
-        <f t="shared" si="39"/>
-        <v>665.99595709990479</v>
+        <f t="shared" si="41"/>
+        <v>647.61659574977921</v>
       </c>
       <c r="EV29" s="4">
-        <f t="shared" si="39"/>
-        <v>659.33599752890575</v>
+        <f t="shared" si="41"/>
+        <v>641.14042979228145</v>
       </c>
       <c r="EW29" s="4">
-        <f t="shared" si="39"/>
-        <v>652.74263755361665</v>
+        <f t="shared" si="41"/>
+        <v>634.72902549435867</v>
       </c>
       <c r="EX29" s="4">
-        <f t="shared" si="39"/>
-        <v>646.21521117808049</v>
+        <f t="shared" si="41"/>
+        <v>628.38173523941509</v>
       </c>
       <c r="EY29" s="4">
-        <f t="shared" si="39"/>
-        <v>639.75305906629967</v>
+        <f t="shared" si="41"/>
+        <v>622.09791788702091</v>
       </c>
       <c r="EZ29" s="4">
-        <f t="shared" si="39"/>
-        <v>633.35552847563667</v>
+        <f t="shared" si="41"/>
+        <v>615.87693870815065</v>
       </c>
       <c r="FA29" s="4">
-        <f t="shared" si="39"/>
-        <v>627.02197319088032</v>
+        <f t="shared" si="41"/>
+        <v>609.71816932106913</v>
       </c>
       <c r="FB29" s="4">
-        <f t="shared" si="39"/>
-        <v>620.75175345897151</v>
+        <f t="shared" si="41"/>
+        <v>603.62098762785843</v>
       </c>
       <c r="FC29" s="4">
-        <f t="shared" si="39"/>
-        <v>614.54423592438184</v>
+        <f t="shared" si="41"/>
+        <v>597.58477775157985</v>
       </c>
       <c r="FD29" s="4">
-        <f t="shared" ref="FD29:FU29" si="40">+FC29*(1+$AG$34)</f>
-        <v>608.39879356513802</v>
+        <f t="shared" si="41"/>
+        <v>591.60892997406404</v>
       </c>
       <c r="FE29" s="4">
-        <f t="shared" si="40"/>
-        <v>602.31480562948661</v>
+        <f t="shared" si="41"/>
+        <v>585.69284067432341</v>
       </c>
       <c r="FF29" s="4">
-        <f t="shared" si="40"/>
-        <v>596.29165757319174</v>
+        <f t="shared" si="41"/>
+        <v>579.83591226758017</v>
       </c>
       <c r="FG29" s="4">
-        <f t="shared" si="40"/>
-        <v>590.32874099745982</v>
+        <f t="shared" si="41"/>
+        <v>574.03755314490434</v>
       </c>
       <c r="FH29" s="4">
-        <f t="shared" si="40"/>
-        <v>584.42545358748521</v>
+        <f t="shared" si="41"/>
+        <v>568.29717761345523</v>
       </c>
       <c r="FI29" s="4">
-        <f t="shared" si="40"/>
-        <v>578.58119905161038</v>
+        <f t="shared" si="41"/>
+        <v>562.6142058373207</v>
       </c>
       <c r="FJ29" s="4">
-        <f t="shared" si="40"/>
-        <v>572.79538706109429</v>
+        <f t="shared" si="41"/>
+        <v>556.98806377894743</v>
       </c>
       <c r="FK29" s="4">
-        <f t="shared" si="40"/>
-        <v>567.06743319048337</v>
+        <f t="shared" si="41"/>
+        <v>551.41818314115801</v>
       </c>
       <c r="FL29" s="4">
-        <f t="shared" si="40"/>
-        <v>561.39675885857855</v>
+        <f t="shared" si="41"/>
+        <v>545.90400130974638</v>
       </c>
       <c r="FM29" s="4">
-        <f t="shared" si="40"/>
-        <v>555.7827912699928</v>
+        <f t="shared" ref="FM29:GD29" si="42">+FL29*(1+$AP$34)</f>
+        <v>540.4449612966489</v>
       </c>
       <c r="FN29" s="4">
-        <f t="shared" si="40"/>
-        <v>550.22496335729284</v>
+        <f t="shared" si="42"/>
+        <v>535.04051168368244</v>
       </c>
       <c r="FO29" s="4">
-        <f t="shared" si="40"/>
-        <v>544.72271372371995</v>
+        <f t="shared" si="42"/>
+        <v>529.69010656684566</v>
       </c>
       <c r="FP29" s="4">
-        <f t="shared" si="40"/>
-        <v>539.27548658648277</v>
+        <f t="shared" si="42"/>
+        <v>524.39320550117725</v>
       </c>
       <c r="FQ29" s="4">
-        <f t="shared" si="40"/>
-        <v>533.88273172061793</v>
+        <f t="shared" si="42"/>
+        <v>519.14927344616547</v>
       </c>
       <c r="FR29" s="4">
-        <f t="shared" si="40"/>
-        <v>528.54390440341172</v>
+        <f t="shared" si="42"/>
+        <v>513.95778071170378</v>
       </c>
       <c r="FS29" s="4">
-        <f t="shared" si="40"/>
-        <v>523.25846535937762</v>
+        <f t="shared" si="42"/>
+        <v>508.81820290458671</v>
       </c>
       <c r="FT29" s="4">
-        <f t="shared" si="40"/>
-        <v>518.02588070578383</v>
+        <f t="shared" si="42"/>
+        <v>503.73002087554084</v>
       </c>
       <c r="FU29" s="4">
-        <f t="shared" si="40"/>
-        <v>512.84562189872599</v>
-      </c>
-    </row>
-    <row r="30" spans="2:177" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>498.69272066678542</v>
+      </c>
+      <c r="FV29" s="4">
+        <f t="shared" si="42"/>
+        <v>493.70579346011755</v>
+      </c>
+      <c r="FW29" s="4">
+        <f t="shared" si="42"/>
+        <v>488.76873552551638</v>
+      </c>
+      <c r="FX29" s="4">
+        <f t="shared" si="42"/>
+        <v>483.88104817026118</v>
+      </c>
+      <c r="FY29" s="4">
+        <f t="shared" si="42"/>
+        <v>479.04223768855854</v>
+      </c>
+      <c r="FZ29" s="4">
+        <f t="shared" si="42"/>
+        <v>474.25181531167294</v>
+      </c>
+      <c r="GA29" s="4">
+        <f t="shared" si="42"/>
+        <v>469.50929715855619</v>
+      </c>
+      <c r="GB29" s="4">
+        <f t="shared" si="42"/>
+        <v>464.81420418697064</v>
+      </c>
+      <c r="GC29" s="4">
+        <f t="shared" si="42"/>
+        <v>460.16606214510091</v>
+      </c>
+      <c r="GD29" s="4">
+        <f t="shared" si="42"/>
+        <v>455.56440152364991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:186" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ref="C30:K30" si="41">+C29/C31</f>
+        <f t="shared" ref="C30:K30" si="43">+C29/C31</f>
         <v>1.2671232876712328</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.65187713310580209</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.73972602739726023</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.31034482758620691</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.84429065743944631</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.1289198606271778</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.4456140350877193</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.97879858657243812</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.2455516014234875</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" ref="L30:N30" si="42">+L29/L31</f>
+        <f t="shared" ref="L30:N30" si="44">+L29/L31</f>
         <v>1.078661921708185</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.2288028469750893</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="42"/>
-        <v>1.3283558718861215</v>
+        <f t="shared" si="44"/>
+        <v>0.45620437956204379</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" ref="O30:S30" si="45">+O29/O31</f>
+        <v>2.0729927007299271</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" ref="P30" si="43">+P29/P31</f>
-        <v>2.6787878787878787</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" ref="Q30" si="44">+Q29/Q31</f>
-        <v>3.0987261146496814</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" ref="R30:W30" si="45">+R29/R31</f>
-        <v>3.3717948717948718</v>
+        <f t="shared" si="45"/>
+        <v>1.1592592592592592</v>
       </c>
       <c r="S30" s="3">
         <f t="shared" si="45"/>
+        <v>1.1156716417910448</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="Y30" s="3">
+        <f t="shared" ref="Y30" si="46">+Y29/Y31</f>
+        <v>2.6787878787878787</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" ref="Z30" si="47">+Z29/Z31</f>
+        <v>3.0987261146496814</v>
+      </c>
+      <c r="AA30" s="3">
+        <f t="shared" ref="AA30:AF30" si="48">+AA29/AA31</f>
+        <v>3.3717948717948718</v>
+      </c>
+      <c r="AB30" s="3">
+        <f t="shared" si="48"/>
         <v>3.4509803921568629</v>
       </c>
-      <c r="T30" s="3">
-        <f t="shared" si="45"/>
+      <c r="AC30" s="3">
+        <f t="shared" si="48"/>
         <v>5.2033898305084749</v>
       </c>
-      <c r="U30" s="3">
-        <f t="shared" si="45"/>
+      <c r="AD30" s="3">
+        <f t="shared" si="48"/>
         <v>2.9691780821917808</v>
       </c>
-      <c r="V30" s="3">
-        <f t="shared" si="45"/>
+      <c r="AE30" s="3">
+        <f t="shared" si="48"/>
         <v>3.3986013986013988</v>
       </c>
-      <c r="W30" s="3">
-        <f t="shared" si="45"/>
-        <v>4.0391608391608367</v>
-      </c>
-      <c r="X30" s="3">
-        <f t="shared" ref="X30:AD30" si="46">+X29/X31</f>
-        <v>4.6896969398601378</v>
-      </c>
-      <c r="Y30" s="3">
-        <f t="shared" si="46"/>
-        <v>5.2197588510433546</v>
-      </c>
-      <c r="Z30" s="3">
-        <f t="shared" si="46"/>
-        <v>5.7746839008726809</v>
-      </c>
-      <c r="AA30" s="3">
-        <f t="shared" si="46"/>
-        <v>6.3554175776181241</v>
-      </c>
-      <c r="AB30" s="3">
-        <f t="shared" si="46"/>
-        <v>6.8364724305601925</v>
-      </c>
-      <c r="AC30" s="3">
-        <f t="shared" si="46"/>
-        <v>7.3367282875835489</v>
-      </c>
-      <c r="AD30" s="3">
-        <f t="shared" si="46"/>
-        <v>7.8568237958774612</v>
-      </c>
-    </row>
-    <row r="31" spans="2:177" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <f t="shared" si="48"/>
+        <v>3.8525179856115108</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" ref="AG30:AM30" si="49">+AG29/AG31</f>
+        <v>5.430147058823529</v>
+      </c>
+      <c r="AH30" s="3">
+        <f t="shared" si="49"/>
+        <v>4.7657069882352943</v>
+      </c>
+      <c r="AI30" s="3">
+        <f t="shared" si="49"/>
+        <v>5.3076924117882394</v>
+      </c>
+      <c r="AJ30" s="3">
+        <f t="shared" si="49"/>
+        <v>5.8751225672590159</v>
+      </c>
+      <c r="AK30" s="3">
+        <f t="shared" si="49"/>
+        <v>6.3438017951941434</v>
+      </c>
+      <c r="AL30" s="3">
+        <f t="shared" si="49"/>
+        <v>6.8313838297452563</v>
+      </c>
+      <c r="AM30" s="3">
+        <f t="shared" si="49"/>
+        <v>7.3384995248027591</v>
+      </c>
+    </row>
+    <row r="31" spans="2:186" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
@@ -3702,66 +4189,83 @@
         <v>281</v>
       </c>
       <c r="N31" s="5">
-        <f>+M31</f>
-        <v>281</v>
+        <v>274</v>
+      </c>
+      <c r="O31" s="5">
+        <v>274</v>
       </c>
       <c r="P31" s="5">
+        <f t="shared" ref="O31:S31" si="50">+O31</f>
+        <v>274</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="50"/>
+        <v>274</v>
+      </c>
+      <c r="R31" s="5">
+        <v>270</v>
+      </c>
+      <c r="S31" s="5">
+        <v>268</v>
+      </c>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="Y31" s="5">
         <v>330</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Z31" s="5">
         <v>314</v>
       </c>
-      <c r="R31" s="5">
+      <c r="AA31" s="5">
         <v>312</v>
       </c>
-      <c r="S31" s="5">
+      <c r="AB31" s="5">
         <v>306</v>
       </c>
-      <c r="T31" s="5">
+      <c r="AC31" s="5">
         <v>295</v>
       </c>
-      <c r="U31" s="5">
+      <c r="AD31" s="5">
         <v>292</v>
       </c>
-      <c r="V31" s="5">
+      <c r="AE31" s="5">
         <v>286</v>
       </c>
-      <c r="W31" s="4">
-        <f>+V31</f>
-        <v>286</v>
-      </c>
-      <c r="X31" s="4">
-        <f t="shared" ref="X31:AD31" si="47">+W31</f>
-        <v>286</v>
-      </c>
-      <c r="Y31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-      <c r="Z31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-      <c r="AA31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-      <c r="AB31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-      <c r="AC31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-      <c r="AD31" s="4">
-        <f t="shared" si="47"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AF31" s="4">
+        <v>278</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>272</v>
+      </c>
+      <c r="AH31" s="4">
+        <f t="shared" ref="AG31:AM31" si="51">+AG31</f>
+        <v>272</v>
+      </c>
+      <c r="AI31" s="4">
+        <f t="shared" si="51"/>
+        <v>272</v>
+      </c>
+      <c r="AJ31" s="4">
+        <f t="shared" si="51"/>
+        <v>272</v>
+      </c>
+      <c r="AK31" s="4">
+        <f t="shared" si="51"/>
+        <v>272</v>
+      </c>
+      <c r="AL31" s="4">
+        <f t="shared" si="51"/>
+        <v>272</v>
+      </c>
+      <c r="AM31" s="4">
+        <f t="shared" si="51"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3786,66 +4290,66 @@
         <f>K18/G18-1</f>
         <v>0.13926499032882012</v>
       </c>
-      <c r="Q33" s="9">
-        <f t="shared" ref="Q33:W33" si="48">Q18/P18-1</f>
+      <c r="Z33" s="9">
+        <f t="shared" ref="Z33:AF33" si="52">Z18/Y18-1</f>
         <v>0.10213830755232034</v>
       </c>
-      <c r="R33" s="9">
-        <f t="shared" si="48"/>
+      <c r="AA33" s="9">
+        <f t="shared" si="52"/>
         <v>6.2951496388028882E-2</v>
       </c>
-      <c r="S33" s="9">
-        <f t="shared" si="48"/>
+      <c r="AB33" s="9">
+        <f t="shared" si="52"/>
         <v>-3.8834951456310662E-2</v>
       </c>
-      <c r="T33" s="9">
-        <f t="shared" si="48"/>
+      <c r="AC33" s="9">
+        <f t="shared" si="52"/>
         <v>0.11858585858585857</v>
       </c>
-      <c r="U33" s="9">
-        <f t="shared" si="48"/>
+      <c r="AD33" s="9">
+        <f t="shared" si="52"/>
         <v>1.6615495755824439E-2</v>
       </c>
-      <c r="V33" s="9">
-        <f t="shared" si="48"/>
+      <c r="AE33" s="9">
+        <f t="shared" si="52"/>
         <v>0.24196127198436668</v>
       </c>
-      <c r="W33" s="9">
-        <f t="shared" si="48"/>
-        <v>0.11572021170075808</v>
-      </c>
-      <c r="X33" s="9">
-        <f t="shared" ref="X33:AD33" si="49">X18/W18-1</f>
+      <c r="AF33" s="9">
+        <f t="shared" si="52"/>
+        <v>6.2222857960234634E-2</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" ref="AG33:AM33" si="53">AG18/AF18-1</f>
+        <v>1.8314031780231721E-2</v>
+      </c>
+      <c r="AH33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Y33" s="9">
-        <f t="shared" si="49"/>
+      <c r="AI33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Z33" s="9">
-        <f t="shared" si="49"/>
+      <c r="AJ33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AA33" s="9">
-        <f t="shared" si="49"/>
+      <c r="AK33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AB33" s="9">
-        <f t="shared" si="49"/>
+      <c r="AL33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="49"/>
+      <c r="AM33" s="9">
+        <f t="shared" si="53"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AD33" s="9">
-        <f t="shared" si="49"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -3870,76 +4374,76 @@
         <f>+K20/K18</f>
         <v>0.82229767968307865</v>
       </c>
-      <c r="P34" s="9">
-        <f>+P20/P18</f>
+      <c r="Y34" s="9">
+        <f>+Y20/Y18</f>
         <v>0.69199272065514106</v>
       </c>
-      <c r="Q34" s="9">
-        <f t="shared" ref="Q34:V34" si="50">+Q20/Q18</f>
+      <c r="Z34" s="9">
+        <f t="shared" ref="Z34:AE34" si="54">+Z20/Z18</f>
         <v>0.7320949432404541</v>
       </c>
-      <c r="R34" s="9">
-        <f t="shared" si="50"/>
+      <c r="AA34" s="9">
+        <f t="shared" si="54"/>
         <v>0.75203883495145629</v>
       </c>
-      <c r="S34" s="9">
-        <f t="shared" si="50"/>
+      <c r="AB34" s="9">
+        <f t="shared" si="54"/>
         <v>0.73292929292929287</v>
       </c>
-      <c r="T34" s="9">
-        <f t="shared" si="50"/>
+      <c r="AC34" s="9">
+        <f t="shared" si="54"/>
         <v>0.75275419902474261</v>
       </c>
-      <c r="U34" s="9">
-        <f t="shared" si="50"/>
+      <c r="AD34" s="9">
+        <f t="shared" si="54"/>
         <v>0.7345887368982057</v>
       </c>
-      <c r="V34" s="9">
-        <f t="shared" si="50"/>
+      <c r="AE34" s="9">
+        <f t="shared" si="54"/>
         <v>0.73408668287798595</v>
       </c>
-      <c r="W34" s="9">
-        <f t="shared" ref="W34:AD34" si="51">+W20/W18</f>
-        <v>0.73</v>
-      </c>
-      <c r="X34" s="9">
-        <f t="shared" si="51"/>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="Y34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AF34" s="9">
+        <f t="shared" ref="AF34:AM34" si="55">+AF20/AF18</f>
+        <v>0.75868569889577164</v>
+      </c>
+      <c r="AG34" s="9">
+        <f t="shared" si="55"/>
+        <v>0.77386934673366836</v>
+      </c>
+      <c r="AH34" s="9">
+        <f t="shared" si="55"/>
         <v>0.74</v>
       </c>
-      <c r="Z34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AI34" s="9">
+        <f t="shared" si="55"/>
         <v>0.745</v>
       </c>
-      <c r="AA34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AJ34" s="9">
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AK34" s="9">
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AL34" s="9">
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
-      <c r="AD34" s="9">
-        <f t="shared" si="51"/>
+      <c r="AM34" s="9">
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
-      <c r="AF34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG34" s="9">
+      <c r="AO34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP34" s="9">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -3964,103 +4468,103 @@
         <f>+K25/K18</f>
         <v>0.27164685908319186</v>
       </c>
-      <c r="P35" s="9">
-        <f>+P25/P18</f>
+      <c r="Y35" s="9">
+        <f>+Y25/Y18</f>
         <v>0.20586897179253869</v>
       </c>
-      <c r="Q35" s="9">
-        <f t="shared" ref="Q35:V35" si="52">+Q25/Q18</f>
+      <c r="Z35" s="9">
+        <f t="shared" ref="Z35:AE35" si="56">+Z25/Z18</f>
         <v>0.25386996904024767</v>
       </c>
-      <c r="R35" s="9">
-        <f t="shared" si="52"/>
+      <c r="AA35" s="9">
+        <f t="shared" si="56"/>
         <v>0.28019417475728153</v>
       </c>
-      <c r="S35" s="9">
-        <f t="shared" si="52"/>
+      <c r="AB35" s="9">
+        <f t="shared" si="56"/>
         <v>0.2086868686868687</v>
       </c>
-      <c r="T35" s="9">
-        <f t="shared" si="52"/>
+      <c r="AC35" s="9">
+        <f t="shared" si="56"/>
         <v>0.26584793209319124</v>
       </c>
-      <c r="U35" s="9">
-        <f t="shared" si="52"/>
+      <c r="AD35" s="9">
+        <f t="shared" si="56"/>
         <v>0.19115295789660686</v>
       </c>
-      <c r="V35" s="9">
-        <f t="shared" si="52"/>
+      <c r="AE35" s="9">
+        <f t="shared" si="56"/>
         <v>0.18766986125017879</v>
       </c>
-      <c r="W35" s="9">
-        <f t="shared" ref="W35:AD35" si="53">+W25/W18</f>
-        <v>0.19128205128205117</v>
-      </c>
-      <c r="X35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.2067425939756036</v>
-      </c>
-      <c r="Y35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.22200001933530061</v>
-      </c>
-      <c r="Z35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.23705827138704239</v>
-      </c>
-      <c r="AA35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.25192121757370173</v>
-      </c>
-      <c r="AB35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.26159265024217371</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.27107628810154893</v>
-      </c>
-      <c r="AD35" s="9">
-        <f t="shared" si="53"/>
-        <v>0.28037577765297511</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG35" s="12">
+      <c r="AF35" s="9">
+        <f t="shared" ref="AF35:AM35" si="57">+AF25/AF18</f>
+        <v>0.21559385941287368</v>
+      </c>
+      <c r="AG35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.22771753504363926</v>
+      </c>
+      <c r="AH35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.20445307785735009</v>
+      </c>
+      <c r="AI35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.21985204721934343</v>
+      </c>
+      <c r="AJ35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.23504909484615233</v>
+      </c>
+      <c r="AK35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.24504814154816867</v>
+      </c>
+      <c r="AL35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.25485303200354403</v>
+      </c>
+      <c r="AM35" s="9">
+        <f t="shared" si="57"/>
+        <v>0.264467536236485</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP35" s="12">
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="AF36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG36" s="9">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AO36" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP36" s="9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="5">
         <f>+G38-G50</f>
         <v>1842</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ref="H37:K37" si="54">+H38-H50</f>
+        <f t="shared" ref="H37:K37" si="58">+H38-H50</f>
         <v>95</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1138</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1184</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>538</v>
       </c>
       <c r="L37" s="5">
@@ -4073,49 +4577,63 @@
       </c>
       <c r="N37" s="5">
         <f>+M37+N29</f>
-        <v>1559.6656000000003</v>
-      </c>
-      <c r="W37" s="4">
+        <v>1311.3976000000002</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
+        <f>R38-R50</f>
+        <v>1380</v>
+      </c>
+      <c r="S37" s="5">
+        <f>S38-S50</f>
+        <v>884</v>
+      </c>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="AF37" s="4">
         <f>+N37</f>
-        <v>1559.6656000000003</v>
-      </c>
-      <c r="X37" s="4">
-        <f>+W37+X29</f>
-        <v>2900.9189247999998</v>
-      </c>
-      <c r="Y37" s="4">
-        <f t="shared" ref="Y37:AD37" si="55">+X37+Y29</f>
-        <v>4393.7699561983991</v>
-      </c>
-      <c r="Z37" s="4">
-        <f t="shared" si="55"/>
-        <v>6045.3295518479863</v>
-      </c>
-      <c r="AA37" s="4">
-        <f t="shared" si="55"/>
-        <v>7862.9789790467694</v>
-      </c>
-      <c r="AB37" s="4">
-        <f t="shared" si="55"/>
-        <v>9818.2100941869849</v>
-      </c>
-      <c r="AC37" s="4">
-        <f t="shared" si="55"/>
-        <v>11916.514384435879</v>
-      </c>
-      <c r="AD37" s="4">
-        <f t="shared" si="55"/>
-        <v>14163.565990056833</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>122</v>
+        <v>1311.3976000000002</v>
       </c>
       <c r="AG37" s="4">
-        <f>NPV(AG35,W29:FZ29)+Main!N5-Main!N6</f>
-        <v>30863.201228005775</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AF37+AG29</f>
+        <v>2788.3976000000002</v>
+      </c>
+      <c r="AH37" s="4">
+        <f t="shared" ref="AH37:AM37" si="59">+AG37+AH29</f>
+        <v>4084.6699008000005</v>
+      </c>
+      <c r="AI37" s="4">
+        <f t="shared" si="59"/>
+        <v>5528.3622368064016</v>
+      </c>
+      <c r="AJ37" s="4">
+        <f t="shared" si="59"/>
+        <v>7126.3955751008543</v>
+      </c>
+      <c r="AK37" s="4">
+        <f t="shared" si="59"/>
+        <v>8851.9096633936606</v>
+      </c>
+      <c r="AL37" s="4">
+        <f t="shared" si="59"/>
+        <v>10710.046065084371</v>
+      </c>
+      <c r="AM37" s="4">
+        <f t="shared" si="59"/>
+        <v>12706.117935830722</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP37" s="4">
+        <f>NPV(AP35,AF29:GI29)+Main!N5-Main!N6</f>
+        <v>28050.687573106006</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
@@ -4146,17 +4664,31 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="AF38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG38" s="13">
-        <f>AG37/Main!N3</f>
-        <v>109.83345632742268</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5">
+        <f>2900+362</f>
+        <v>3262</v>
+      </c>
+      <c r="S38" s="5">
+        <f>2400+366</f>
+        <v>2766</v>
+      </c>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="AO38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP38" s="13">
+        <f>AP37/Main!N3</f>
+        <v>106.17219870926463</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -4180,17 +4712,29 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="AF39" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG39" s="9">
-        <f>AG38/Main!N2-1</f>
-        <v>-0.17844673253479926</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5">
+        <v>565</v>
+      </c>
+      <c r="S39" s="5">
+        <v>433</v>
+      </c>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="AO39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP39" s="9">
+        <f>AP38/Main!N2-1</f>
+        <v>-0.25634097703113656</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -4214,10 +4758,22 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5">
+        <v>420</v>
+      </c>
+      <c r="S40" s="5">
+        <v>388</v>
+      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -4241,10 +4797,22 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5">
+        <v>578</v>
+      </c>
+      <c r="S41" s="5">
+        <v>558</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -4273,10 +4841,24 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5">
+        <f>5379+400</f>
+        <v>5779</v>
+      </c>
+      <c r="S42" s="5">
+        <f>5379+373</f>
+        <v>5752</v>
+      </c>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -4300,10 +4882,22 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5">
+        <v>2380</v>
+      </c>
+      <c r="S43" s="5">
+        <v>2393</v>
+      </c>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4327,29 +4921,41 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5">
+        <v>436</v>
+      </c>
+      <c r="S44" s="5">
+        <v>418</v>
+      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5">
-        <f t="shared" ref="G45" si="56">SUM(G38:G44)</f>
+        <f t="shared" ref="G45" si="60">SUM(G38:G44)</f>
         <v>12734</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" ref="H45" si="57">SUM(H38:H44)</f>
+        <f t="shared" ref="H45" si="61">SUM(H38:H44)</f>
         <v>13019</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ref="I45" si="58">SUM(I38:I44)</f>
+        <f t="shared" ref="I45" si="62">SUM(I38:I44)</f>
         <v>13930</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" ref="J45" si="59">SUM(J38:J44)</f>
+        <f t="shared" ref="J45" si="63">SUM(J38:J44)</f>
         <v>13800</v>
       </c>
       <c r="K45" s="5">
@@ -4359,8 +4965,22 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5">
+        <f t="shared" ref="R45" si="64">SUM(R38:R44)</f>
+        <v>13420</v>
+      </c>
+      <c r="S45" s="5">
+        <f>SUM(S38:S44)</f>
+        <v>12708</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -4373,10 +4993,18 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -4400,10 +5028,22 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5">
+        <v>110</v>
+      </c>
+      <c r="S47" s="5">
+        <v>80</v>
+      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="2:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -4427,10 +5067,22 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5">
+        <v>1166</v>
+      </c>
+      <c r="S48" s="5">
+        <v>976</v>
+      </c>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -4454,8 +5106,20 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5">
+        <v>1814</v>
+      </c>
+      <c r="S49" s="5">
+        <v>1412</v>
+      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
@@ -4481,8 +5145,20 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5">
+        <v>1882</v>
+      </c>
+      <c r="S50" s="5">
+        <v>1882</v>
+      </c>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>31</v>
       </c>
@@ -4513,10 +5189,22 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5">
+        <v>498</v>
+      </c>
+      <c r="S51" s="5">
+        <v>526</v>
+      </c>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -4540,10 +5228,22 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5">
+        <v>437</v>
+      </c>
+      <c r="S52" s="5">
+        <v>432</v>
+      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -4567,29 +5267,41 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5">
+        <v>7513</v>
+      </c>
+      <c r="S53" s="5">
+        <v>7400</v>
+      </c>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
-        <f t="shared" ref="G54" si="60">SUM(G47:G53)</f>
+        <f t="shared" ref="G54" si="65">SUM(G47:G53)</f>
         <v>12734</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" ref="H54" si="61">SUM(H47:H53)</f>
+        <f t="shared" ref="H54" si="66">SUM(H47:H53)</f>
         <v>13019</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" ref="I54" si="62">SUM(I47:I53)</f>
+        <f t="shared" ref="I54" si="67">SUM(I47:I53)</f>
         <v>13930</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" ref="J54" si="63">SUM(J47:J53)</f>
+        <f t="shared" ref="J54" si="68">SUM(J47:J53)</f>
         <v>13800</v>
       </c>
       <c r="K54" s="5">
@@ -4599,10 +5311,24 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="56" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5">
+        <f t="shared" ref="R54" si="69">SUM(R47:R53)</f>
+        <v>13420</v>
+      </c>
+      <c r="S54" s="5">
+        <f>SUM(S47:S53)</f>
+        <v>12708</v>
+      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="56" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4613,28 +5339,60 @@
         <v>244</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" ref="H56:J56" si="64">+H29</f>
+        <f t="shared" ref="H56:J56" si="70">+H29</f>
         <v>324</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>127</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>277</v>
       </c>
       <c r="K56" s="5">
         <f>+K29</f>
         <v>350</v>
       </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="5">
+        <f t="shared" ref="L56:S56" si="71">+L29</f>
+        <v>303.10399999999998</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="71"/>
+        <v>345.29360000000008</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="71"/>
+        <v>125</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="71"/>
+        <v>568</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="5">
+        <f t="shared" si="71"/>
+        <v>313</v>
+      </c>
+      <c r="S56" s="5">
+        <f t="shared" si="71"/>
+        <v>299</v>
+      </c>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4661,10 +5419,22 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5">
+        <v>182</v>
+      </c>
+      <c r="S57" s="5">
+        <v>280</v>
+      </c>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4691,10 +5461,22 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5">
+        <v>149</v>
+      </c>
+      <c r="S58" s="5">
+        <v>80</v>
+      </c>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4721,10 +5503,22 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5">
+        <v>148</v>
+      </c>
+      <c r="S59" s="5">
+        <v>143</v>
+      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4751,10 +5545,22 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5">
+        <v>303</v>
+      </c>
+      <c r="S60" s="5">
+        <v>132</v>
+      </c>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4781,10 +5587,22 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5">
+        <v>-38</v>
+      </c>
+      <c r="S61" s="5">
+        <v>58</v>
+      </c>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4811,10 +5629,22 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5">
+        <v>30</v>
+      </c>
+      <c r="S62" s="5">
+        <v>-11</v>
+      </c>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4841,10 +5671,22 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5">
+        <v>-83</v>
+      </c>
+      <c r="S63" s="5">
+        <v>-147</v>
+      </c>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="2:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4871,10 +5713,22 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5">
+        <v>-6</v>
+      </c>
+      <c r="S64" s="5">
+        <v>-13</v>
+      </c>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4901,10 +5755,22 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5">
+        <v>-105</v>
+      </c>
+      <c r="S65" s="5">
+        <v>-402</v>
+      </c>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4915,15 +5781,15 @@
         <v>-143</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66" si="65">SUM(H57:H65)</f>
+        <f t="shared" ref="H66" si="72">SUM(H57:H65)</f>
         <v>64</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" ref="I66:J66" si="66">SUM(I57:I65)</f>
+        <f t="shared" ref="I66:J66" si="73">SUM(I57:I65)</f>
         <v>1534</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>444</v>
       </c>
       <c r="K66" s="5">
@@ -4933,33 +5799,50 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="P66" s="4">
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5">
+        <f>SUM(R57:R65)</f>
+        <v>580</v>
+      </c>
+      <c r="S66" s="5">
+        <f>SUM(S57:S65)</f>
+        <v>120</v>
+      </c>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="Y66" s="4">
         <v>1465</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Z66" s="4">
         <v>1578</v>
       </c>
-      <c r="R66" s="4">
+      <c r="AA66" s="4">
         <v>1692</v>
       </c>
-      <c r="S66" s="4">
+      <c r="AB66" s="4">
         <v>1547</v>
       </c>
-      <c r="T66" s="4">
+      <c r="AC66" s="4">
         <v>1797</v>
       </c>
-      <c r="U66" s="4">
+      <c r="AD66" s="4">
         <v>1934</v>
       </c>
-      <c r="V66" s="4">
+      <c r="AE66" s="4">
         <f>SUM(G66:J66)</f>
         <v>1899</v>
       </c>
-      <c r="W66" s="4">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF66" s="4">
+        <v>1550</v>
+      </c>
+      <c r="AG66" s="4">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -4972,10 +5855,18 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -5002,32 +5893,50 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="P68" s="4">
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5">
+        <v>-51</v>
+      </c>
+      <c r="S68" s="5">
+        <v>-67</v>
+      </c>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="Y68" s="4">
         <v>-93</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Z68" s="4">
         <v>-123</v>
       </c>
-      <c r="R68" s="4">
+      <c r="AA68" s="4">
         <v>-107</v>
       </c>
-      <c r="S68" s="4">
+      <c r="AB68" s="4">
         <v>-119</v>
       </c>
-      <c r="T68" s="4">
+      <c r="AC68" s="4">
         <v>-140</v>
       </c>
-      <c r="U68" s="4">
+      <c r="AD68" s="4">
         <v>-124</v>
       </c>
-      <c r="V68" s="4">
+      <c r="AE68" s="4">
         <f>SUM(G68:J68)</f>
         <v>-188</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF68" s="4">
+        <v>-207</v>
+      </c>
+      <c r="AG68" s="4">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5056,10 +5965,24 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5">
+        <f>182-180</f>
+        <v>2</v>
+      </c>
+      <c r="S69" s="5">
+        <f>128-130</f>
+        <v>-2</v>
+      </c>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5086,10 +6009,22 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5">
+        <v>0</v>
+      </c>
+      <c r="S70" s="5">
+        <v>0</v>
+      </c>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5118,8 +6053,22 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5">
+        <f>SUM(R68:R70)</f>
+        <v>-49</v>
+      </c>
+      <c r="S71" s="5">
+        <f>SUM(S68:S70)</f>
+        <v>-69</v>
+      </c>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -5132,10 +6081,18 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -5163,10 +6120,23 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5">
+        <f>-325+34</f>
+        <v>-291</v>
+      </c>
+      <c r="S73" s="5">
+        <v>-375</v>
+      </c>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -5193,10 +6163,22 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5">
+        <v>-51</v>
+      </c>
+      <c r="S74" s="5">
+        <v>-50</v>
+      </c>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -5223,10 +6205,22 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5">
+        <v>-18</v>
+      </c>
+      <c r="S75" s="5">
+        <v>-121</v>
+      </c>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -5255,10 +6249,24 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5">
+        <f>SUM(R73:R75)</f>
+        <v>-360</v>
+      </c>
+      <c r="S76" s="5">
+        <f>SUM(S73:S75)</f>
+        <v>-546</v>
+      </c>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77" s="1">
         <v>11</v>
@@ -5278,10 +6286,16 @@
       <c r="K77" s="1">
         <v>-31</v>
       </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R77" s="1">
+        <v>-13</v>
+      </c>
+      <c r="S77" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78" s="5">
         <f>+G77+G76+G71+G66</f>
@@ -5303,70 +6317,102 @@
         <f>+K77+K76+K71+K66</f>
         <v>-650</v>
       </c>
-    </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R78" s="5">
+        <f>+R76+R77+R71+R66</f>
+        <v>158</v>
+      </c>
+      <c r="S78" s="5">
+        <f>+S76+S77+S71+S66</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P80" s="4">
-        <f t="shared" ref="P80:S80" si="67">+P68+P66</f>
+        <v>105</v>
+      </c>
+      <c r="Y80" s="4">
+        <f t="shared" ref="Y80:AB80" si="74">+Y68+Y66</f>
         <v>1372</v>
       </c>
-      <c r="Q80" s="4">
-        <f t="shared" si="67"/>
+      <c r="Z80" s="4">
+        <f t="shared" si="74"/>
         <v>1455</v>
       </c>
-      <c r="R80" s="4">
-        <f t="shared" si="67"/>
+      <c r="AA80" s="4">
+        <f t="shared" si="74"/>
         <v>1585</v>
       </c>
-      <c r="S80" s="4">
-        <f t="shared" si="67"/>
+      <c r="AB80" s="4">
+        <f t="shared" si="74"/>
         <v>1428</v>
       </c>
-      <c r="T80" s="4">
-        <f>+T68+T66</f>
+      <c r="AC80" s="4">
+        <f>+AC68+AC66</f>
         <v>1657</v>
       </c>
-      <c r="U80" s="4">
-        <f t="shared" ref="U80:V80" si="68">+U68+U66</f>
+      <c r="AD80" s="4">
+        <f t="shared" ref="AD80:AG80" si="75">+AD68+AD66</f>
         <v>1810</v>
       </c>
-      <c r="V80" s="4">
-        <f t="shared" si="68"/>
+      <c r="AE80" s="4">
+        <f t="shared" si="75"/>
         <v>1711</v>
       </c>
-    </row>
-    <row r="81" spans="17:22" x14ac:dyDescent="0.2">
-      <c r="Q81" s="9">
-        <f>+Q80/P80-1</f>
+      <c r="AF80" s="4">
+        <f t="shared" si="75"/>
+        <v>1343</v>
+      </c>
+      <c r="AG80" s="4">
+        <f t="shared" si="75"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="81" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="Z81" s="9">
+        <f>+Z80/Y80-1</f>
         <v>6.0495626822157478E-2</v>
       </c>
-      <c r="R81" s="9">
-        <f t="shared" ref="R81:V81" si="69">+R80/Q80-1</f>
+      <c r="AA81" s="9">
+        <f t="shared" ref="AA81:AG81" si="76">+AA80/Z80-1</f>
         <v>8.9347079037800592E-2</v>
       </c>
-      <c r="S81" s="9">
-        <f t="shared" si="69"/>
+      <c r="AB81" s="9">
+        <f t="shared" si="76"/>
         <v>-9.9053627760252394E-2</v>
       </c>
-      <c r="T81" s="9">
-        <f t="shared" si="69"/>
+      <c r="AC81" s="9">
+        <f t="shared" si="76"/>
         <v>0.1603641456582634</v>
       </c>
-      <c r="U81" s="9">
-        <f t="shared" si="69"/>
+      <c r="AD81" s="9">
+        <f t="shared" si="76"/>
         <v>9.2335546167773064E-2</v>
       </c>
-      <c r="V81" s="9">
-        <f t="shared" si="69"/>
+      <c r="AE81" s="9">
+        <f t="shared" si="76"/>
         <v>-5.4696132596685043E-2</v>
       </c>
-    </row>
-    <row r="82" spans="17:22" x14ac:dyDescent="0.2">
-      <c r="V82" s="9">
-        <f>RATE(6,0,-P80,V80)</f>
+      <c r="AF81" s="9">
+        <f t="shared" si="76"/>
+        <v>-0.2150789012273524</v>
+      </c>
+      <c r="AG81" s="9">
+        <f t="shared" si="76"/>
+        <v>0.57557706626954586</v>
+      </c>
+    </row>
+    <row r="82" spans="26:33" x14ac:dyDescent="0.2">
+      <c r="AE82" s="9">
+        <f>RATE(6,0,-Y80,AE80)</f>
         <v>3.7486966815271798E-2</v>
+      </c>
+      <c r="AF82" s="9">
+        <f>RATE(6,0,-Z80,AF80)</f>
+        <v>-1.3261281192802583E-2</v>
+      </c>
+      <c r="AG82" s="9">
+        <f>RATE(8,0,-Y80,AG80)</f>
+        <v>5.5650588141609739E-2</v>
       </c>
     </row>
   </sheetData>
